--- a/RQ1_Res.xlsx
+++ b/RQ1_Res.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sahil\Documents\master-thesis\MSThesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37586FDB-1D37-4B69-9B02-C8BA3F19D94A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2CF66A5-CE8E-4C54-B9ED-23300FDC5E2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JB_LS" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="102">
   <si>
     <t>testcase</t>
   </si>
@@ -204,13 +204,148 @@
   </si>
   <si>
     <t>tc3_2</t>
+  </si>
+  <si>
+    <t>tc22</t>
+  </si>
+  <si>
+    <t>tc23</t>
+  </si>
+  <si>
+    <t>int typed to byte</t>
+  </si>
+  <si>
+    <t>extra stack var in Soot</t>
+  </si>
+  <si>
+    <t>boolean as int in Jimple but type is correct</t>
+  </si>
+  <si>
+    <t>null stmt removed in Soot, in SootUp null var is assigned Obj type</t>
+  </si>
+  <si>
+    <t>b var got removed in both</t>
+  </si>
+  <si>
+    <t>b var got removed in both, int to byte</t>
+  </si>
+  <si>
+    <t>c var got removed in both, int to byte</t>
+  </si>
+  <si>
+    <t>obj of type str instead of obj</t>
+  </si>
+  <si>
+    <t>extra () calls static invoke Integer.valueof, arraylist typed to obj, new #L0, #L1</t>
+  </si>
+  <si>
+    <t>int to byte</t>
+  </si>
+  <si>
+    <t>a cal directly no static call</t>
+  </si>
+  <si>
+    <t>char to byte</t>
+  </si>
+  <si>
+    <t>short to byte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 + 1, but not cal </t>
+  </si>
+  <si>
+    <t>val is propagated to sout also</t>
+  </si>
+  <si>
+    <t>sout not propagated</t>
+  </si>
+  <si>
+    <t>only value is propagated, not to sout</t>
+  </si>
+  <si>
+    <t>val is propagated to condition also</t>
+  </si>
+  <si>
+    <t>tc5_1</t>
+  </si>
+  <si>
+    <t>tc5_2</t>
+  </si>
+  <si>
+    <t>tc5_3</t>
+  </si>
+  <si>
+    <t>b not propagated to stack expression</t>
+  </si>
+  <si>
+    <t>b not propagated to sout</t>
+  </si>
+  <si>
+    <t>tc7_1</t>
+  </si>
+  <si>
+    <t>tc7_2</t>
+  </si>
+  <si>
+    <t>b,c not propagated to sout, b not propagated to stack expression</t>
+  </si>
+  <si>
+    <t>cast correctly propagated</t>
+  </si>
+  <si>
+    <t>b correctly propagated to sout</t>
+  </si>
+  <si>
+    <t>null propagated but not to sout</t>
+  </si>
+  <si>
+    <t>both val not propagated to conditon</t>
+  </si>
+  <si>
+    <t>int to long propagated</t>
+  </si>
+  <si>
+    <t>global var not propagated</t>
+  </si>
+  <si>
+    <t>tc13_1</t>
+  </si>
+  <si>
+    <t>stack array also propagated</t>
+  </si>
+  <si>
+    <t>not propagated</t>
+  </si>
+  <si>
+    <t>input file got propagated, in output not propagated</t>
+  </si>
+  <si>
+    <t>tc17_2</t>
+  </si>
+  <si>
+    <t>if expressions then propagated to stack</t>
+  </si>
+  <si>
+    <t>c var left in condition stack5</t>
+  </si>
+  <si>
+    <t>b not propagated in case</t>
+  </si>
+  <si>
+    <t>b not propagated in case, both val not propagated to conditon</t>
+  </si>
+  <si>
+    <t>tc21_1</t>
+  </si>
+  <si>
+    <t>b,d not propagated in case</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,6 +355,12 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -251,9 +392,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -542,8 +684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -870,7 +1012,7 @@
       <c r="A25" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" t="s">
         <v>24</v>
       </c>
       <c r="C25" t="s">
@@ -898,7 +1040,7 @@
       <c r="A27" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" t="s">
         <v>24</v>
       </c>
       <c r="C27" t="s">
@@ -909,10 +1051,10 @@
       <c r="A28" t="s">
         <v>49</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="2" t="s">
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" t="s">
         <v>24</v>
       </c>
     </row>
@@ -970,10 +1112,10 @@
       <c r="A33" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C33" s="2" t="s">
+      <c r="B33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" t="s">
         <v>24</v>
       </c>
       <c r="D33" t="s">
@@ -984,10 +1126,10 @@
       <c r="A34" t="s">
         <v>54</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C34" s="2" t="s">
+      <c r="B34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" t="s">
         <v>24</v>
       </c>
       <c r="D34" t="s">
@@ -998,10 +1140,10 @@
       <c r="A35" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C35" s="2" t="s">
+      <c r="B35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1009,10 +1151,10 @@
       <c r="A36" t="s">
         <v>51</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C36" s="2" t="s">
+      <c r="B36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1084,12 +1226,436 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52E0A71C-0C8D-4607-8B6E-74F51903A3B1}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="71.6328125" customWidth="1"/>
+    <col min="5" max="5" width="10.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1098,22 +1664,324 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEABA7D8-4D45-46B3-848E-5A9094F34FDC}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="83.453125" customWidth="1"/>
+  </cols>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F1D8C28-615A-4C5F-B29C-3C7866EC8681}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="78.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/RQ1_Res.xlsx
+++ b/RQ1_Res.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sahil\Documents\master-thesis\MSThesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2CF66A5-CE8E-4C54-B9ED-23300FDC5E2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33434822-858D-48D2-A042-10BEBF615757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -224,9 +224,6 @@
     <t>null stmt removed in Soot, in SootUp null var is assigned Obj type</t>
   </si>
   <si>
-    <t>b var got removed in both</t>
-  </si>
-  <si>
     <t>b var got removed in both, int to byte</t>
   </si>
   <si>
@@ -339,6 +336,9 @@
   </si>
   <si>
     <t>b,d not propagated in case</t>
+  </si>
+  <si>
+    <t>b var got removed in both, since in bytecode b var removed</t>
   </si>
 </sst>
 </file>
@@ -392,11 +392,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1229,7 +1228,7 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1263,7 +1262,7 @@
         <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -1277,7 +1276,7 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -1291,7 +1290,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -1305,7 +1304,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -1319,12 +1318,12 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
@@ -1335,7 +1334,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
@@ -1346,16 +1345,16 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
         <v>79</v>
-      </c>
-      <c r="B9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -1369,7 +1368,7 @@
         <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -1383,29 +1382,29 @@
         <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C13" t="s">
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -1415,11 +1414,11 @@
       <c r="B14" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" t="s">
         <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
@@ -1433,7 +1432,7 @@
         <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
@@ -1447,7 +1446,7 @@
         <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
@@ -1457,7 +1456,7 @@
       <c r="B17" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1468,11 +1467,11 @@
       <c r="B18" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" t="s">
         <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -1482,18 +1481,18 @@
       <c r="B19" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" t="s">
         <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>91</v>
-      </c>
-      <c r="C20" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1504,11 +1503,11 @@
       <c r="B21" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" t="s">
         <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
@@ -1518,7 +1517,7 @@
       <c r="B22" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1533,7 +1532,7 @@
         <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
@@ -1544,29 +1543,29 @@
         <v>30</v>
       </c>
       <c r="D24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" t="s">
         <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
@@ -1577,7 +1576,7 @@
         <v>30</v>
       </c>
       <c r="D27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
@@ -1588,14 +1587,14 @@
         <v>30</v>
       </c>
       <c r="D28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1607,7 +1606,7 @@
         <v>30</v>
       </c>
       <c r="D30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
@@ -1618,18 +1617,18 @@
         <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
@@ -1640,7 +1639,7 @@
         <v>30</v>
       </c>
       <c r="D33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
@@ -1651,7 +1650,7 @@
         <v>30</v>
       </c>
       <c r="D34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1683,8 +1682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F1D8C28-615A-4C5F-B29C-3C7866EC8681}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1797,10 +1796,10 @@
         <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -1808,7 +1807,7 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -1821,7 +1820,7 @@
         <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -1829,7 +1828,7 @@
         <v>42</v>
       </c>
       <c r="D13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -1872,11 +1871,11 @@
       <c r="B17" t="s">
         <v>30</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -1886,11 +1885,11 @@
       <c r="B18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -1903,7 +1902,7 @@
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
@@ -1917,7 +1916,7 @@
         <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
@@ -1927,11 +1926,11 @@
       <c r="B22" t="s">
         <v>30</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
@@ -1950,7 +1949,7 @@
         <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">

--- a/RQ1_Res.xlsx
+++ b/RQ1_Res.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sahil\Documents\master-thesis\MSThesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33434822-858D-48D2-A042-10BEBF615757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B28876A-09E5-41A5-9D9B-BA42EC30F6C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JB_LS" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="108">
   <si>
     <t>testcase</t>
   </si>
@@ -339,6 +339,24 @@
   </si>
   <si>
     <t>b var got removed in both, since in bytecode b var removed</t>
+  </si>
+  <si>
+    <t>tc1_1</t>
+  </si>
+  <si>
+    <t>special case, need to remove unused var after</t>
+  </si>
+  <si>
+    <t>in Sootup extra stack var in input, need to remove unused var after</t>
+  </si>
+  <si>
+    <t>tc6_1</t>
+  </si>
+  <si>
+    <t>labels get rearragned wrongly</t>
+  </si>
+  <si>
+    <t>switch break applied correctly, labels get rearragned wrongly</t>
   </si>
 </sst>
 </file>
@@ -392,10 +410,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1177,12 +1196,329 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{831437A3-0FE3-41D4-BAC3-857A168DAE24}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="72.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1227,7 +1563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52E0A71C-0C8D-4607-8B6E-74F51903A3B1}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -1682,8 +2018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F1D8C28-615A-4C5F-B29C-3C7866EC8681}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/RQ1_Res.xlsx
+++ b/RQ1_Res.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sahil\Documents\master-thesis\MSThesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B28876A-09E5-41A5-9D9B-BA42EC30F6C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD95739B-7271-439A-BE6C-5B50897EB7B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JB_LS" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="JB_CP" sheetId="7" r:id="rId7"/>
     <sheet name="JB_UCE" sheetId="8" r:id="rId8"/>
     <sheet name="JB_TR" sheetId="9" r:id="rId9"/>
+    <sheet name="JB_LNS" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="137">
   <si>
     <t>testcase</t>
   </si>
@@ -357,6 +358,93 @@
   </si>
   <si>
     <t>switch break applied correctly, labels get rearragned wrongly</t>
+  </si>
+  <si>
+    <t>why y=x got deleted?</t>
+  </si>
+  <si>
+    <t>why x=5, x=60 not removed?</t>
+  </si>
+  <si>
+    <t>tc24</t>
+  </si>
+  <si>
+    <t>tc25</t>
+  </si>
+  <si>
+    <t>tc26</t>
+  </si>
+  <si>
+    <t>tc27</t>
+  </si>
+  <si>
+    <t>x=10 not removed</t>
+  </si>
+  <si>
+    <t>why x=10, x=20 if we sout then not removed</t>
+  </si>
+  <si>
+    <t>x=sm() removed in soot</t>
+  </si>
+  <si>
+    <t>x=5 not removed, y=sm() removed in soot</t>
+  </si>
+  <si>
+    <t>why x=20 not removed, x=sm() removed in soot</t>
+  </si>
+  <si>
+    <t>x=10 not removed, z=sm() removed in soot</t>
+  </si>
+  <si>
+    <t>diff jimple in finally case</t>
+  </si>
+  <si>
+    <t>Soot DAE also removes Nop stmts</t>
+  </si>
+  <si>
+    <t>arr[] ref no effects</t>
+  </si>
+  <si>
+    <t>flag=0 not removed</t>
+  </si>
+  <si>
+    <t>x=15 not removed</t>
+  </si>
+  <si>
+    <t>SootUp invoke func not removed like int x = sm()</t>
+  </si>
+  <si>
+    <t>i++ not removd</t>
+  </si>
+  <si>
+    <t>tc12_1</t>
+  </si>
+  <si>
+    <t>i++ removed</t>
+  </si>
+  <si>
+    <t>i=5 not removed</t>
+  </si>
+  <si>
+    <t>flag=0 not removed, temp = 10 removed in soot</t>
+  </si>
+  <si>
+    <t>Java Compiler itself removes unused local var</t>
+  </si>
+  <si>
+    <t>Nop eliminator in SootUp can't be generated via java source code</t>
+  </si>
+  <si>
+    <t>tc28</t>
+  </si>
+  <si>
+    <t>tc29</t>
+  </si>
+  <si>
+    <t>tc30</t>
+  </si>
+  <si>
+    <t>Doesn't remove from source code</t>
   </si>
 </sst>
 </file>
@@ -410,11 +498,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -700,6 +787,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1182,11 +1272,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9C60968-C8EF-4B05-A358-05624D374EE3}">
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B75705-77D5-4135-BC36-BC72BB916C48}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
@@ -1194,12 +1286,52 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9C60968-C8EF-4B05-A358-05624D374EE3}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="56.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{831437A3-0FE3-41D4-BAC3-857A168DAE24}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1480,7 +1612,7 @@
       <c r="B23" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1491,7 +1623,7 @@
       <c r="B24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1502,7 +1634,7 @@
       <c r="B25" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1513,7 +1645,7 @@
       <c r="B26" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1525,46 +1657,556 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E79297C-28E4-4FA7-B2C6-7EA3BE6F92F8}">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="58" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEE2D155-8980-48ED-9F7D-0F3850F6F73E}">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="61.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>127</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>110</v>
+      </c>
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>111</v>
+      </c>
+      <c r="B29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>112</v>
+      </c>
+      <c r="B30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>113</v>
+      </c>
+      <c r="B31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>133</v>
+      </c>
+      <c r="B32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>134</v>
+      </c>
+      <c r="B33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>135</v>
+      </c>
+      <c r="B34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24217E59-62E7-4316-AA4A-CC081F82175C}">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="61.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52E0A71C-0C8D-4607-8B6E-74F51903A3B1}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1997,17 +2639,40 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEABA7D8-4D45-46B3-848E-5A9094F34FDC}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="4" max="4" width="83.453125" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2016,10 +2681,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F1D8C28-615A-4C5F-B29C-3C7866EC8681}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/RQ1_Res.xlsx
+++ b/RQ1_Res.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sahil\Documents\master-thesis\MSThesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD95739B-7271-439A-BE6C-5B50897EB7B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EECE706-652B-4C5E-8B07-3FF10B3AC56D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JB_LS" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="JB_UCE" sheetId="8" r:id="rId8"/>
     <sheet name="JB_TR" sheetId="9" r:id="rId9"/>
     <sheet name="JB_LNS" sheetId="11" r:id="rId10"/>
+    <sheet name="JB_CBF" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="139">
   <si>
     <t>testcase</t>
   </si>
@@ -444,7 +445,13 @@
     <t>tc30</t>
   </si>
   <si>
-    <t>Doesn't remove from source code</t>
+    <t>Java Compiler doesn't compile if code after return stmt</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>?? Extra label added</t>
   </si>
 </sst>
 </file>
@@ -1274,14 +1281,566 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B75705-77D5-4135-BC36-BC72BB916C48}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="51.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>127</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>110</v>
+      </c>
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>111</v>
+      </c>
+      <c r="B29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>112</v>
+      </c>
+      <c r="B30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>113</v>
+      </c>
+      <c r="B31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>133</v>
+      </c>
+      <c r="B32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>134</v>
+      </c>
+      <c r="B33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>135</v>
+      </c>
+      <c r="B34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01127D9B-9278-4A7A-A675-0A71F0BBC6C7}">
+  <dimension ref="A1:D26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="51.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2162,7 +2721,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2639,10 +3198,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEABA7D8-4D45-46B3-848E-5A9094F34FDC}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/RQ1_Res.xlsx
+++ b/RQ1_Res.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sahil\Documents\master-thesis\MSThesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EECE706-652B-4C5E-8B07-3FF10B3AC56D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3468995-F7F1-48CA-BA07-9DD6C7D8618B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11860" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JB_LS" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="143">
   <si>
     <t>testcase</t>
   </si>
@@ -415,9 +415,6 @@
     <t>SootUp invoke func not removed like int x = sm()</t>
   </si>
   <si>
-    <t>i++ not removd</t>
-  </si>
-  <si>
     <t>tc12_1</t>
   </si>
   <si>
@@ -448,10 +445,25 @@
     <t>Java Compiler doesn't compile if code after return stmt</t>
   </si>
   <si>
-    <t>??</t>
-  </si>
-  <si>
-    <t>?? Extra label added</t>
+    <t>i++ not removed</t>
+  </si>
+  <si>
+    <t>x from Int to Obj, extra var added by type assigner</t>
+  </si>
+  <si>
+    <t>Extra label added because of type assigner</t>
+  </si>
+  <si>
+    <t>cal by ConstantPropagatorAndFolder</t>
+  </si>
+  <si>
+    <t>b value will be propagated next time, in 1st run only b=a propagated</t>
+  </si>
+  <si>
+    <t>check in sout if 1 is printed or true is printed</t>
+  </si>
+  <si>
+    <t>wrong jimple order??</t>
   </si>
 </sst>
 </file>
@@ -1281,10 +1293,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B75705-77D5-4135-BC36-BC72BB916C48}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D2"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1465,7 +1480,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B16" t="s">
         <v>24</v>
@@ -1641,7 +1656,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B32" t="s">
         <v>24</v>
@@ -1655,7 +1670,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B33" t="s">
         <v>24</v>
@@ -1666,7 +1681,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B34" t="s">
         <v>24</v>
@@ -1685,8 +1700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01127D9B-9278-4A7A-A675-0A71F0BBC6C7}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1889,8 +1904,8 @@
   </sheetPr>
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2222,7 +2237,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D2"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2249,7 +2264,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2264,8 +2279,8 @@
   </sheetPr>
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2482,7 +2497,7 @@
     </row>
     <row r="16" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>30</v>
@@ -2491,7 +2506,7 @@
         <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
@@ -2596,7 +2611,7 @@
         <v>30</v>
       </c>
       <c r="D25" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
@@ -2610,7 +2625,7 @@
         <v>30</v>
       </c>
       <c r="D26" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
@@ -2635,7 +2650,7 @@
         <v>24</v>
       </c>
       <c r="D28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
@@ -2649,7 +2664,7 @@
         <v>30</v>
       </c>
       <c r="D29" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
@@ -2676,7 +2691,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B32" t="s">
         <v>24</v>
@@ -2687,7 +2702,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B33" t="s">
         <v>24</v>
@@ -2698,7 +2713,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B34" t="s">
         <v>24</v>
@@ -2721,7 +2736,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2748,7 +2763,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2762,19 +2777,19 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="4" max="4" width="71.6328125" customWidth="1"/>
-    <col min="5" max="5" width="10.26953125" customWidth="1"/>
+    <col min="5" max="5" width="59.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2788,7 +2803,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2802,7 +2817,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2816,7 +2831,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2829,8 +2844,11 @@
       <c r="D4" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2844,7 +2862,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2858,7 +2876,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>76</v>
       </c>
@@ -2869,7 +2887,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>77</v>
       </c>
@@ -2880,7 +2898,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>78</v>
       </c>
@@ -2894,7 +2912,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2908,7 +2926,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2922,7 +2940,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>81</v>
       </c>
@@ -2933,7 +2951,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>82</v>
       </c>
@@ -2944,7 +2962,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -2958,7 +2976,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -2972,7 +2990,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -2986,7 +3004,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -2997,7 +3015,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -3011,7 +3029,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -3025,7 +3043,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>90</v>
       </c>
@@ -3033,7 +3051,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -3047,7 +3065,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -3058,7 +3076,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -3072,7 +3090,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -3083,7 +3101,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>50</v>
       </c>
@@ -3094,7 +3112,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>94</v>
       </c>
@@ -3105,7 +3123,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -3116,7 +3134,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>52</v>
       </c>
@@ -3126,8 +3144,11 @@
       <c r="D28" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E28" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -3135,7 +3156,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -3146,7 +3167,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>51</v>
       </c>
@@ -3156,8 +3177,11 @@
       <c r="D31" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E31" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>99</v>
       </c>
@@ -3168,7 +3192,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>57</v>
       </c>
@@ -3178,8 +3202,11 @@
       <c r="D33" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E33" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>58</v>
       </c>
@@ -3204,7 +3231,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3231,7 +3258,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/RQ1_Res.xlsx
+++ b/RQ1_Res.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sahil\Documents\master-thesis\MSThesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3468995-F7F1-48CA-BA07-9DD6C7D8618B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90AD6E21-71DD-4A91-BCC1-A75A809D640A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11860" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JB_LS" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="146">
   <si>
     <t>testcase</t>
   </si>
@@ -464,13 +464,22 @@
   </si>
   <si>
     <t>wrong jimple order??</t>
+  </si>
+  <si>
+    <t>cbf perform dead code eliminator at the last step</t>
+  </si>
+  <si>
+    <t>not printed in parameters</t>
+  </si>
+  <si>
+    <t>Bug, should not propagate inside array index, even in Soot</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -486,6 +495,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -517,10 +533,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1698,10 +1716,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01127D9B-9278-4A7A-A675-0A71F0BBC6C7}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1709,7 +1727,7 @@
     <col min="4" max="4" width="51.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1722,8 +1740,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1734,72 +1755,72 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -2777,10 +2798,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3202,7 +3223,7 @@
       <c r="D33" t="s">
         <v>100</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="3" t="s">
         <v>141</v>
       </c>
     </row>
@@ -3215,6 +3236,62 @@
       </c>
       <c r="D34" t="s">
         <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>110</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>111</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>112</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>113</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>132</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>133</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>134</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/RQ1_Res.xlsx
+++ b/RQ1_Res.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sahil\Documents\master-thesis\MSThesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90AD6E21-71DD-4A91-BCC1-A75A809D640A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D8F7619-24EF-4669-A7FC-8E20E38490CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JB_LS" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="147">
   <si>
     <t>testcase</t>
   </si>
@@ -473,6 +473,9 @@
   </si>
   <si>
     <t>Bug, should not propagate inside array index, even in Soot</t>
+  </si>
+  <si>
+    <t>nested cbf was not working earlier</t>
   </si>
 </sst>
 </file>
@@ -533,12 +536,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -829,7 +831,7 @@
   </sheetPr>
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -1718,8 +1720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01127D9B-9278-4A7A-A675-0A71F0BBC6C7}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1759,120 +1761,267 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>8</v>
       </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>10</v>
       </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>11</v>
       </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>13</v>
       </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>14</v>
       </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>15</v>
       </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>16</v>
       </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>17</v>
       </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>111</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1883,10 +2032,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9C60968-C8EF-4B05-A358-05624D374EE3}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1912,8 +2061,213 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2800,7 +3154,7 @@
   </sheetPr>
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
@@ -3258,7 +3612,7 @@
       <c r="A37" t="s">
         <v>112</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3266,7 +3620,7 @@
       <c r="A38" t="s">
         <v>113</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3274,7 +3628,7 @@
       <c r="A39" t="s">
         <v>132</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3282,7 +3636,7 @@
       <c r="A40" t="s">
         <v>133</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3290,7 +3644,7 @@
       <c r="A41" t="s">
         <v>134</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" t="s">
         <v>24</v>
       </c>
     </row>

--- a/RQ1_Res.xlsx
+++ b/RQ1_Res.xlsx
@@ -8,24 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sahil\Documents\master-thesis\MSThesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D8F7619-24EF-4669-A7FC-8E20E38490CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1542F824-F00A-49F2-BDB7-91191DC3F871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="JB_LS" sheetId="1" r:id="rId1"/>
-    <sheet name="JB_LP" sheetId="2" r:id="rId2"/>
-    <sheet name="JB_ESE" sheetId="3" r:id="rId3"/>
-    <sheet name="JB_NE" sheetId="4" r:id="rId4"/>
-    <sheet name="JB_DAE" sheetId="5" r:id="rId5"/>
-    <sheet name="JB_ULE" sheetId="6" r:id="rId6"/>
-    <sheet name="JB_CP" sheetId="7" r:id="rId7"/>
-    <sheet name="JB_UCE" sheetId="8" r:id="rId8"/>
-    <sheet name="JB_TR" sheetId="9" r:id="rId9"/>
-    <sheet name="JB_LNS" sheetId="11" r:id="rId10"/>
-    <sheet name="JB_CBF" sheetId="12" r:id="rId11"/>
+    <sheet name="RQ3 Top SootUp CHA" sheetId="17" r:id="rId1"/>
+    <sheet name="RQ3 Top SootUp RTA" sheetId="18" r:id="rId2"/>
+    <sheet name="RQ3 Top Soot RTA" sheetId="19" r:id="rId3"/>
+    <sheet name="RQ3 Top Soot CHA" sheetId="13" r:id="rId4"/>
+    <sheet name="RQ3 Bot Soot CHA" sheetId="20" r:id="rId5"/>
+    <sheet name="RQ3 Bot Soot RTA" sheetId="21" r:id="rId6"/>
+    <sheet name="RQ3 Bot SootUp CHA" sheetId="22" r:id="rId7"/>
+    <sheet name="RQ3 Bot SootUp RTA" sheetId="23" r:id="rId8"/>
+    <sheet name="JB_LS" sheetId="1" r:id="rId9"/>
+    <sheet name="JB_LP" sheetId="2" r:id="rId10"/>
+    <sheet name="JB_ESE" sheetId="3" r:id="rId11"/>
+    <sheet name="JB_NE" sheetId="4" r:id="rId12"/>
+    <sheet name="JB_DAE" sheetId="5" r:id="rId13"/>
+    <sheet name="JB_ULE" sheetId="6" r:id="rId14"/>
+    <sheet name="JB_CP" sheetId="7" r:id="rId15"/>
+    <sheet name="JB_UCE" sheetId="8" r:id="rId16"/>
+    <sheet name="JB_TR" sheetId="9" r:id="rId17"/>
+    <sheet name="JB_LNS" sheetId="11" r:id="rId18"/>
+    <sheet name="JB_CBF" sheetId="12" r:id="rId19"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="232">
   <si>
     <t>testcase</t>
   </si>
@@ -476,13 +484,268 @@
   </si>
   <si>
     <t>nested cbf was not working earlier</t>
+  </si>
+  <si>
+    <t>nsmallest</t>
+  </si>
+  <si>
+    <t>threshold_percent</t>
+  </si>
+  <si>
+    <t>threshold_jars</t>
+  </si>
+  <si>
+    <t>common_sequences</t>
+  </si>
+  <si>
+    <t>[(JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A)]</t>
+  </si>
+  <si>
+    <t>[(JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE), (JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE, JB_ESE), (JB_A, JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A, JB_LP, JB_ULE, JB_ESE), (JB_LS, JB_TR, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_A)]</t>
+  </si>
+  <si>
+    <t>[(JB_A, JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A, JB_LP, JB_ULE, JB_ESE)]</t>
+  </si>
+  <si>
+    <t>[(JB_A, JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_ESE), (JB_A, JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE, JB_ESE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A, JB_LP, JB_ULE, JB_ESE), (JB_ESE, JB_LS, JB_TR, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE), (JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A), (JB_A, JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE), (JB_A, JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_ESE, JB_A), (JB_LS, JB_TR, JB_ESE, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_A)]</t>
+  </si>
+  <si>
+    <t>[(JB_A, JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE, JB_ESE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A, JB_LP, JB_ULE, JB_ESE), (JB_ESE, JB_LS, JB_TR, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A), (JB_LS, JB_TR, JB_ESE, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE)]</t>
+  </si>
+  <si>
+    <t>[(JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_ESE, JB_A, JB_LP, JB_ULE), (JB_A, JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_ESE), (JB_LS, JB_TR, JB_LP, JB_ULE, JB_A, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_A, JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE, JB_ESE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A, JB_LP, JB_ULE, JB_ESE), (JB_ESE, JB_LS, JB_TR, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE), (JB_ESE, JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_A), (JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_A, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE), (JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A), (JB_A, JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE), (JB_A, JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_ESE, JB_A), (JB_LS, JB_TR, JB_LP, JB_ULE, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_A, JB_ESE), (JB_LS, JB_TR, JB_ESE, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_A)]</t>
+  </si>
+  <si>
+    <t>[(JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_ESE, JB_A, JB_LP, JB_ULE), (JB_A, JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE, JB_ESE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_ESE, JB_A), (JB_A, JB_LS, JB_TR, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A, JB_LP, JB_ULE, JB_ESE), (JB_ESE, JB_LS, JB_TR, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_A, JB_ESE), (JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A, JB_ESE), (JB_A, JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A), (JB_A, JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_A), (JB_LS, JB_TR, JB_ESE, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE)]</t>
+  </si>
+  <si>
+    <t>[(JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_ESE, JB_A, JB_LP, JB_ULE), (JB_A, JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_ESE), (JB_LS, JB_TR, JB_LP, JB_ULE, JB_A, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_A, JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE, JB_ESE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_ESE, JB_A), (JB_A, JB_LS, JB_TR, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_ESE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A, JB_LP, JB_ULE, JB_ESE), (JB_ESE, JB_LS, JB_TR, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_A, JB_ESE), (JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE), (JB_ESE, JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_A), (JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A), (JB_A, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE), (JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A), (JB_ESE, JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A, JB_LP, JB_ULE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A, JB_ESE), (JB_A, JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE), (JB_A, JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LP, JB_ULE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_A, JB_ESE, JB_LP, JB_ULE), (JB_A, JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_LS, JB_TR, JB_LP, JB_ULE, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE), (JB_LS, JB_TR, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_A), (JB_LS, JB_TR, JB_ESE, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE)]</t>
+  </si>
+  <si>
+    <t>[(JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_ESE, JB_A, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_LP, JB_ULE, JB_A, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_A, JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE, JB_ESE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_ESE, JB_A), (JB_A, JB_LS, JB_TR, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A, JB_LP, JB_ULE, JB_ESE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_A, JB_LP, JB_ULE), (JB_ESE, JB_LS, JB_TR, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_A, JB_ESE), (JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A), (JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A, JB_ESE), (JB_A, JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A), (JB_A, JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_A), (JB_LS, JB_TR, JB_ESE, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE)]</t>
+  </si>
+  <si>
+    <t>[(JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_ESE, JB_A, JB_LP, JB_ULE), (JB_A, JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_ESE), (JB_LS, JB_TR, JB_LP, JB_ULE, JB_A, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_A, JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_ESE, JB_A, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE, JB_ESE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_ESE, JB_A), (JB_A, JB_LS, JB_TR, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_ESE), (JB_ESE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A, JB_LP, JB_ULE, JB_ESE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_A, JB_LP, JB_ULE), (JB_ESE, JB_LS, JB_TR, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_A, JB_ESE), (JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE), (JB_ESE, JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_A), (JB_ESE, JB_A, JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A), (JB_A, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE), (JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A), (JB_ESE, JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A, JB_LP, JB_ULE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A, JB_ESE), (JB_A, JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A, JB_ESE), (JB_A, JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_A, JB_ESE, JB_LP, JB_ULE), (JB_A, JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_LS, JB_TR, JB_LP, JB_ULE, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE), (JB_LS, JB_TR, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_A), (JB_LS, JB_TR, JB_A, JB_LP, JB_ULE, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_LS, JB_TR, JB_ESE, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE)]</t>
+  </si>
+  <si>
+    <t>[(JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_ESE, JB_A, JB_LP, JB_ULE), (JB_A, JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_ESE), (JB_LS, JB_TR, JB_LP, JB_ULE, JB_A, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_A, JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_ESE, JB_A, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE, JB_ESE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_ESE, JB_A), (JB_A, JB_LS, JB_TR, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_LP, JB_ULE, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A, JB_LP, JB_ULE, JB_ESE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_A, JB_LP, JB_ULE), (JB_ESE, JB_LS, JB_TR, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_A, JB_ESE), (JB_LS, JB_TR, JB_A, JB_ESE, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE), (JB_ESE, JB_A, JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A), (JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A, JB_ESE), (JB_A, JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A), (JB_A, JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_ESE, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_A)]</t>
+  </si>
+  <si>
+    <t>[(JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_ESE, JB_A, JB_LP, JB_ULE), (JB_A, JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_ESE), (JB_LS, JB_TR, JB_LP, JB_ULE, JB_A, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_A, JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_ESE, JB_A, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE, JB_ESE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_ESE, JB_A), (JB_A, JB_LS, JB_TR, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_LP, JB_ULE, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE), (JB_LS, JB_TR, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_ESE), (JB_ESE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A, JB_LP, JB_ULE, JB_ESE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_A, JB_LP, JB_ULE), (JB_ESE, JB_LS, JB_TR, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE, JB_A), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LP, JB_ULE, JB_A), (JB_LS, JB_TR, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_A, JB_ESE), (JB_LS, JB_TR, JB_A, JB_ESE, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE), (JB_ESE, JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_A), (JB_ESE, JB_A, JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_A, JB_LS, JB_TR, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A), (JB_A, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE), (JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A), (JB_ESE, JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_ESE, JB_A, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A, JB_ESE), (JB_A, JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A, JB_ESE), (JB_A, JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_A, JB_ESE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_ESE, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_A), (JB_A, JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_LS, JB_TR, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_A), (JB_LS, JB_TR, JB_A, JB_LP, JB_ULE, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A, JB_CP, JB_CBF, JB_UCE)]</t>
+  </si>
+  <si>
+    <t>[(JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_ESE, JB_A, JB_LP, JB_ULE), (JB_A, JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_ESE), (JB_LS, JB_TR, JB_LP, JB_ULE, JB_A, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_A, JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_ESE, JB_A, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE, JB_ESE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_ESE, JB_A), (JB_A, JB_LS, JB_TR, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_LP, JB_ULE, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A, JB_LP, JB_ULE, JB_ESE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_A, JB_LP, JB_ULE), (JB_ESE, JB_LS, JB_TR, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE, JB_A), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LP, JB_ULE, JB_A), (JB_LS, JB_TR, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_A, JB_ESE), (JB_LS, JB_TR, JB_A, JB_ESE, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE), (JB_ESE, JB_A, JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A), (JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A, JB_ESE), (JB_A, JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A), (JB_A, JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LP, JB_ULE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_A, JB_ESE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_ESE, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_A), (JB_LS, JB_TR, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_A), (JB_LS, JB_TR, JB_A, JB_LP, JB_ULE, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE)]</t>
+  </si>
+  <si>
+    <t>[(JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_ESE, JB_A, JB_LP, JB_ULE), (JB_A, JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_ESE), (JB_LS, JB_TR, JB_LP, JB_ULE, JB_A, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_A, JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_ESE, JB_A, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE, JB_ESE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_ESE, JB_A), (JB_A, JB_LS, JB_TR, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_LP, JB_ULE, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE), (JB_LS, JB_TR, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_ESE), (JB_ESE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A, JB_LP, JB_ULE, JB_ESE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_A, JB_LP, JB_ULE), (JB_ESE, JB_LS, JB_TR, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE, JB_A), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LP, JB_ULE, JB_A), (JB_LS, JB_TR, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_A, JB_ESE), (JB_LS, JB_TR, JB_A, JB_ESE, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE), (JB_ESE, JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_A), (JB_ESE, JB_A, JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_A, JB_LS, JB_TR, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A), (JB_A, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE), (JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A), (JB_ESE, JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_ESE, JB_A, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A, JB_ESE), (JB_A, JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A, JB_ESE), (JB_A, JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LP, JB_ULE), (JB_A, JB_ESE, JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_A, JB_ESE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_ESE, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_A), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE, JB_A), (JB_A, JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_LS, JB_TR, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_A), (JB_LS, JB_TR, JB_A, JB_LP, JB_ULE, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A, JB_CP, JB_CBF, JB_UCE)]</t>
+  </si>
+  <si>
+    <t>[(JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_ESE, JB_A, JB_LP, JB_ULE), (JB_A, JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_ESE), (JB_LS, JB_TR, JB_LP, JB_ULE, JB_A, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_A, JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_ESE, JB_A, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE, JB_ESE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_ESE, JB_A), (JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A, JB_CP, JB_DAE), (JB_A, JB_LS, JB_TR, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_LP, JB_ULE, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A, JB_LP, JB_ULE, JB_ESE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_A, JB_LP, JB_ULE), (JB_ESE, JB_LS, JB_TR, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_A, JB_LP, JB_ULE, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE, JB_A), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LP, JB_ULE, JB_A), (JB_LS, JB_TR, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_A, JB_ESE), (JB_LS, JB_TR, JB_A, JB_ESE, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE), (JB_ESE, JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_A), (JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A, JB_CP, JB_CBF, JB_UCE), (JB_ESE, JB_A, JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A), (JB_A, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE), (JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A, JB_ESE), (JB_A, JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A), (JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A, JB_ESE), (JB_A, JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LP, JB_ULE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_A, JB_ESE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_ESE, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_A), (JB_LS, JB_TR, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_A)]</t>
+  </si>
+  <si>
+    <t>[(JB_LS, JB_TR, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LP, JB_ULE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_ESE, JB_A, JB_LP, JB_ULE), (JB_A, JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_ESE), (JB_LS, JB_TR, JB_LP, JB_ULE, JB_A, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_A, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_LP, JB_ULE), (JB_A, JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_ESE, JB_A, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE, JB_ESE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_ESE, JB_A), (JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A, JB_CP, JB_DAE), (JB_A, JB_LS, JB_TR, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_LP, JB_ULE, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE), (JB_LS, JB_TR, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_ESE), (JB_ESE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_ESE, JB_LS, JB_TR, JB_A, JB_CP, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A, JB_LP, JB_ULE, JB_ESE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_A, JB_LP, JB_ULE), (JB_ESE, JB_LS, JB_TR, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A), (JB_LS, JB_TR, JB_A, JB_LP, JB_ULE, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE, JB_A), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LP, JB_ULE, JB_A), (JB_LS, JB_TR, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_A, JB_ESE), (JB_LS, JB_TR, JB_A, JB_ESE, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE), (JB_ESE, JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_A), (JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A, JB_CP, JB_CBF, JB_UCE), (JB_ESE, JB_A, JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_A, JB_LS, JB_TR, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A), (JB_A, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE), (JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A), (JB_ESE, JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_ESE, JB_A, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A, JB_ESE), (JB_A, JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A, JB_ESE), (JB_A, JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LP, JB_ULE), (JB_A, JB_ESE, JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_A, JB_ESE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_ESE, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_A), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE, JB_A), (JB_A, JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_A, JB_ESE, JB_LS, JB_TR, JB_CP, JB_DAE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_A)]</t>
+  </si>
+  <si>
+    <t>[(JB_LS, JB_TR, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LP, JB_ULE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_ESE, JB_A, JB_LP, JB_ULE), (JB_A, JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_ESE), (JB_LS, JB_TR, JB_LP, JB_ULE, JB_A, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_A, JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_ESE, JB_A, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE, JB_ESE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_ESE, JB_A), (JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A, JB_CP, JB_DAE), (JB_A, JB_LS, JB_TR, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_LP, JB_ULE, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE), (JB_LS, JB_TR, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_ESE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A, JB_LP, JB_ULE, JB_ESE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_A, JB_LP, JB_ULE), (JB_ESE, JB_LS, JB_TR, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A), (JB_LS, JB_TR, JB_A, JB_LP, JB_ULE, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE, JB_A), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LP, JB_ULE, JB_A), (JB_LS, JB_TR, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_A, JB_ESE), (JB_LS, JB_TR, JB_A, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE), (JB_LS, JB_TR, JB_A, JB_ESE, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE), (JB_ESE, JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_A), (JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A, JB_CP, JB_CBF, JB_UCE), (JB_ESE, JB_A, JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A), (JB_A, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE), (JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A, JB_ESE), (JB_A, JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A), (JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A, JB_ESE), (JB_A, JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LP, JB_ULE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_A, JB_ESE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_ESE, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_A), (JB_A, JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_A, JB_ESE, JB_LS, JB_TR, JB_CP, JB_DAE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_A)]</t>
+  </si>
+  <si>
+    <t>[(JB_LS, JB_TR, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LP, JB_ULE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_ESE, JB_A, JB_LP, JB_ULE), (JB_A, JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_ESE), (JB_LS, JB_TR, JB_LP, JB_ULE, JB_A, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_A, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_LP, JB_ULE), (JB_A, JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE, JB_CP, JB_DAE), (JB_A, JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_ESE, JB_A, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE, JB_ESE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_ESE, JB_A), (JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A, JB_CP, JB_DAE), (JB_A, JB_LS, JB_TR, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_LP, JB_ULE, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE), (JB_LS, JB_TR, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_ESE), (JB_ESE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_ESE, JB_LS, JB_TR, JB_A, JB_CP, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A, JB_LP, JB_ULE, JB_ESE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_A, JB_LP, JB_ULE), (JB_ESE, JB_LS, JB_TR, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A), (JB_LS, JB_TR, JB_A, JB_LP, JB_ULE, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE, JB_A), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LP, JB_ULE, JB_A), (JB_LS, JB_TR, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_A, JB_ESE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A, JB_ESE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_A, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE), (JB_LS, JB_TR, JB_A, JB_ESE, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE), (JB_ESE, JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_A), (JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A, JB_CP, JB_CBF, JB_UCE), (JB_ESE, JB_A, JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_A, JB_LS, JB_TR, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A), (JB_A, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE), (JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A), (JB_A, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_CBF, JB_UCE, JB_ESE), (JB_ESE, JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_ESE, JB_A, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A, JB_ESE), (JB_A, JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A), (JB_LS, JB_TR, JB_A, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A, JB_ESE), (JB_A, JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LP, JB_ULE), (JB_A, JB_ESE, JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_A, JB_ESE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_ESE, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_A), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE, JB_A), (JB_A, JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_LS, JB_TR, JB_A, JB_ESE, JB_CP, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_ESE, JB_LS, JB_TR, JB_A, JB_CP, JB_DAE, JB_LP, JB_ULE), (JB_A, JB_ESE, JB_LS, JB_TR, JB_CP, JB_DAE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_A), (JB_LS, JB_TR, JB_ESE, JB_A, JB_CP, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_ESE, JB_LP, JB_ULE, JB_A)]</t>
+  </si>
+  <si>
+    <t>[(JB_LS, JB_TR, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LP, JB_ULE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_ESE, JB_A, JB_LP, JB_ULE), (JB_A, JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_ESE), (JB_LS, JB_TR, JB_LP, JB_ULE, JB_A, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_A, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_LP, JB_ULE), (JB_A, JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_ESE, JB_A, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE, JB_ESE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_ESE, JB_A), (JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A, JB_CP, JB_DAE), (JB_A, JB_LS, JB_TR, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_LP, JB_ULE, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE), (JB_LS, JB_TR, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_ESE), (JB_A, JB_ESE, JB_LS, JB_TR, JB_CP, JB_DAE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A, JB_LP, JB_ULE, JB_ESE), (JB_LS, JB_TR, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_A), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_A, JB_LP, JB_ULE), (JB_ESE, JB_LS, JB_TR, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A), (JB_LS, JB_TR, JB_A, JB_LP, JB_ULE, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE, JB_A), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LP, JB_ULE, JB_A), (JB_LS, JB_TR, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_A, JB_ESE), (JB_LS, JB_TR, JB_A, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE), (JB_LS, JB_TR, JB_A, JB_ESE, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE), (JB_ESE, JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_A), (JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A, JB_CP, JB_CBF, JB_UCE), (JB_ESE, JB_A, JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_A, JB_LS, JB_TR, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A), (JB_A, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE), (JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A, JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A, JB_ESE), (JB_A, JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A), (JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A, JB_ESE), (JB_A, JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LP, JB_ULE), (JB_A, JB_ESE, JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_A, JB_ESE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_ESE, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_A), (JB_A, JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_ESE, JB_LS, JB_TR, JB_A, JB_CP, JB_DAE, JB_LP, JB_ULE), (JB_CP, JB_DAE, JB_LS, JB_TR, JB_ESE, JB_A, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_ESE, JB_LP, JB_ULE, JB_A)]</t>
+  </si>
+  <si>
+    <t>[(JB_LS, JB_TR, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LP, JB_ULE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_ESE, JB_A, JB_LP, JB_ULE), (JB_A, JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_ESE), (JB_A, JB_ESE, JB_LS, JB_TR, JB_CP, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_LP, JB_ULE, JB_A, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_A, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_LP, JB_ULE), (JB_A, JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE, JB_CP, JB_DAE), (JB_A, JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_ESE, JB_A, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE, JB_ESE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_ESE, JB_A), (JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A, JB_CP, JB_DAE), (JB_A, JB_LS, JB_TR, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_LP, JB_ULE, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE), (JB_LS, JB_TR, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_ESE), (JB_ESE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_A, JB_ESE, JB_LS, JB_TR, JB_CP, JB_DAE, JB_LP, JB_ULE), (JB_ESE, JB_LS, JB_TR, JB_A, JB_CP, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A, JB_LP, JB_ULE, JB_ESE), (JB_A, JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE, JB_CP, JB_DAE), (JB_LS, JB_TR, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_A), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_A, JB_LP, JB_ULE), (JB_ESE, JB_LS, JB_TR, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A), (JB_LS, JB_TR, JB_A, JB_LP, JB_ULE, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE, JB_A), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LP, JB_ULE, JB_A), (JB_LS, JB_TR, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_A, JB_ESE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A, JB_ESE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_A, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE), (JB_LS, JB_TR, JB_A, JB_ESE, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE), (JB_ESE, JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_A), (JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A, JB_CP, JB_CBF, JB_UCE), (JB_ESE, JB_A, JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_A, JB_LS, JB_TR, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A), (JB_A, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE), (JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A), (JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A, JB_LS, JB_TR, JB_LP, JB_ULE), (JB_A, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_CBF, JB_UCE, JB_ESE), (JB_ESE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE, JB_CP, JB_CBF, JB_UCE), (JB_ESE, JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_ESE, JB_A, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A, JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A, JB_ESE), (JB_A, JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A), (JB_ESE, JB_A, JB_LS, JB_TR, JB_CP, JB_DAE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_A, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A, JB_ESE), (JB_A, JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LP, JB_ULE), (JB_A, JB_ESE, JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_A, JB_ESE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_ESE, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_A), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE, JB_A), (JB_A, JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_LS, JB_TR, JB_A, JB_ESE, JB_CP, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_ESE, JB_LS, JB_TR, JB_A, JB_CP, JB_DAE, JB_LP, JB_ULE), (JB_CP, JB_DAE, JB_LS, JB_TR, JB_ESE, JB_A, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_ESE, JB_A, JB_CP, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_ESE, JB_A, JB_LP, JB_ULE, JB_CP, JB_CBF, JB_UCE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_ESE, JB_LP, JB_ULE, JB_A), (JB_LS, JB_TR, JB_A, JB_CP, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_ESE), (JB_A, JB_LS, JB_TR, JB_ESE, JB_CP, JB_DAE, JB_LP, JB_ULE)]</t>
+  </si>
+  <si>
+    <t>[(JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A, JB_CP, JB_CBF)]</t>
+  </si>
+  <si>
+    <t>[(JB_LS, JB_TR, JB_A, JB_LP, JB_ULE, JB_CP, JB_CBF, JB_ESE), (JB_CP, JB_DAE, JB_CBF, JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A), (JB_CP, JB_CBF, JB_ESE, JB_LP, JB_ULE, JB_A, JB_LS, JB_TR), (JB_CP, JB_CBF, JB_LP, JB_ULE, JB_LS, JB_TR, JB_A, JB_ESE), (JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A, JB_CP, JB_CBF)]</t>
+  </si>
+  <si>
+    <t>[(JB_ESE, JB_CP, JB_CBF, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A), (JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A, JB_CP, JB_CBF)]</t>
+  </si>
+  <si>
+    <t>[(JB_ESE, JB_CP, JB_CBF, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A), (JB_LS, JB_TR, JB_A, JB_LP, JB_ULE, JB_CP, JB_CBF, JB_ESE), (JB_ESE, JB_A, JB_CP, JB_DAE, JB_CBF, JB_LS, JB_TR, JB_LP, JB_ULE), (JB_ESE, JB_A, JB_LP, JB_ULE, JB_CP, JB_CBF, JB_LS, JB_TR), (JB_CP, JB_DAE, JB_CBF, JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A), (JB_A, JB_LP, JB_ULE, JB_LS, JB_TR, JB_ESE, JB_CP, JB_CBF), (JB_CP, JB_CBF, JB_ESE, JB_LP, JB_ULE, JB_A, JB_LS, JB_TR), (JB_CP, JB_CBF, JB_LP, JB_ULE, JB_LS, JB_TR, JB_A, JB_ESE), (JB_A, JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_CBF), (JB_A, JB_LP, JB_ULE, JB_CP, JB_CBF, JB_LS, JB_TR, JB_ESE), (JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A, JB_CP, JB_CBF)]</t>
+  </si>
+  <si>
+    <t>[(JB_ESE, JB_CP, JB_CBF, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A), (JB_A, JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_CBF), (JB_A, JB_LP, JB_ULE, JB_CP, JB_CBF, JB_LS, JB_TR, JB_ESE), (JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A, JB_CP, JB_CBF)]</t>
+  </si>
+  <si>
+    <t>[(JB_ESE, JB_CP, JB_CBF, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A), (JB_A, JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_CBF), (JB_A, JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE, JB_CP, JB_CBF), (JB_LS, JB_TR, JB_A, JB_LP, JB_ULE, JB_CP, JB_CBF, JB_ESE), (JB_ESE, JB_A, JB_CP, JB_DAE, JB_CBF, JB_LS, JB_TR, JB_LP, JB_ULE), (JB_ESE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF), (JB_A, JB_LS, JB_TR, JB_ESE, JB_CP, JB_CBF, JB_LP, JB_ULE), (JB_ESE, JB_A, JB_LP, JB_ULE, JB_CP, JB_CBF, JB_LS, JB_TR), (JB_A, JB_LP, JB_ULE, JB_CP, JB_CBF, JB_LS, JB_TR, JB_ESE), (JB_CP, JB_DAE, JB_CBF, JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A), (JB_A, JB_LP, JB_ULE, JB_LS, JB_TR, JB_ESE, JB_CP, JB_CBF), (JB_CP, JB_CBF, JB_ESE, JB_LP, JB_ULE, JB_A, JB_LS, JB_TR), (JB_CP, JB_CBF, JB_LP, JB_ULE, JB_LS, JB_TR, JB_A, JB_ESE), (JB_ESE, JB_A, JB_LS, JB_TR, JB_CP, JB_CBF, JB_LP, JB_ULE), (JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A, JB_CP, JB_CBF)]</t>
+  </si>
+  <si>
+    <t>[(JB_ESE, JB_CP, JB_CBF, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A), (JB_A, JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_CBF), (JB_A, JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE, JB_CP, JB_CBF), (JB_LS, JB_TR, JB_A, JB_LP, JB_ULE, JB_CP, JB_CBF, JB_ESE), (JB_A, JB_LP, JB_ULE, JB_CP, JB_CBF, JB_LS, JB_TR, JB_ESE), (JB_ESE, JB_A, JB_LS, JB_TR, JB_CP, JB_CBF, JB_LP, JB_ULE), (JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A, JB_CP, JB_CBF)]</t>
+  </si>
+  <si>
+    <t>[(JB_LS, JB_TR, JB_CP, JB_CBF, JB_ESE, JB_A, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE, JB_CP, JB_CBF, JB_A), (JB_CP, JB_CBF, JB_A, JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE), (JB_ESE, JB_CP, JB_CBF, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A), (JB_A, JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_CBF), (JB_A, JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE, JB_CP, JB_CBF), (JB_CP, JB_CBF, JB_ESE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_A, JB_LP, JB_ULE, JB_CP, JB_CBF, JB_ESE), (JB_LS, JB_TR, JB_ESE, JB_A, JB_LP, JB_ULE, JB_CP, JB_CBF), (JB_LS, JB_TR, JB_A, JB_ESE, JB_CP, JB_CBF, JB_LP, JB_ULE), (JB_ESE, JB_A, JB_CP, JB_DAE, JB_CBF, JB_LS, JB_TR, JB_LP, JB_ULE), (JB_ESE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF), (JB_A, JB_LS, JB_TR, JB_ESE, JB_CP, JB_CBF, JB_LP, JB_ULE), (JB_ESE, JB_A, JB_LP, JB_ULE, JB_CP, JB_CBF, JB_LS, JB_TR), (JB_ESE, JB_A, JB_LP, JB_ULE, JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF), (JB_A, JB_LP, JB_ULE, JB_CP, JB_CBF, JB_LS, JB_TR, JB_ESE), (JB_CP, JB_DAE, JB_CBF, JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A), (JB_LP, JB_ULE, JB_A, JB_CP, JB_DAE, JB_CBF, JB_LS, JB_TR, JB_ESE), (JB_ESE, JB_A, JB_CP, JB_CBF, JB_LS, JB_TR, JB_LP, JB_ULE), (JB_A, JB_LP, JB_ULE, JB_LS, JB_TR, JB_ESE, JB_CP, JB_CBF), (JB_CP, JB_CBF, JB_ESE, JB_LP, JB_ULE, JB_A, JB_LS, JB_TR), (JB_CP, JB_CBF, JB_LP, JB_ULE, JB_LS, JB_TR, JB_A, JB_ESE), (JB_ESE, JB_A, JB_LS, JB_TR, JB_CP, JB_CBF, JB_LP, JB_ULE), (JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A, JB_CP, JB_CBF)]</t>
+  </si>
+  <si>
+    <t>[(JB_A, JB_CP, JB_CBF, JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE, JB_CP, JB_CBF, JB_A), (JB_ESE, JB_CP, JB_CBF, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE), (JB_ESE, JB_CP, JB_CBF, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A), (JB_A, JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_CBF), (JB_A, JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE, JB_CP, JB_CBF), (JB_LS, JB_TR, JB_A, JB_LP, JB_ULE, JB_CP, JB_CBF, JB_ESE), (JB_CP, JB_CBF, JB_LS, JB_TR, JB_ESE, JB_A, JB_LP, JB_ULE), (JB_A, JB_LP, JB_ULE, JB_CP, JB_CBF, JB_LS, JB_TR, JB_ESE), (JB_LP, JB_ULE, JB_LS, JB_TR, JB_ESE, JB_CP, JB_CBF, JB_A), (JB_ESE, JB_A, JB_LS, JB_TR, JB_CP, JB_CBF, JB_LP, JB_ULE), (JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A, JB_CP, JB_CBF)]</t>
+  </si>
+  <si>
+    <t>[(JB_CP, JB_CBF, JB_ESE, JB_A, JB_LS, JB_TR, JB_LP, JB_ULE), (JB_A, JB_CP, JB_CBF, JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_CP, JB_CBF, JB_ESE, JB_A, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE, JB_CP, JB_CBF, JB_A), (JB_CP, JB_CBF, JB_A, JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE), (JB_ESE, JB_CP, JB_CBF, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE), (JB_ESE, JB_CP, JB_CBF, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A), (JB_A, JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_CBF), (JB_LS, JB_TR, JB_ESE, JB_CP, JB_CBF, JB_A, JB_LP, JB_ULE), (JB_A, JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE, JB_CP, JB_CBF), (JB_CP, JB_CBF, JB_ESE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_A, JB_LP, JB_ULE, JB_CP, JB_CBF, JB_ESE), (JB_CP, JB_CBF, JB_LS, JB_TR, JB_ESE, JB_A, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_ESE, JB_A, JB_LP, JB_ULE, JB_CP, JB_CBF), (JB_LS, JB_TR, JB_A, JB_ESE, JB_CP, JB_CBF, JB_LP, JB_ULE), (JB_ESE, JB_A, JB_CP, JB_DAE, JB_CBF, JB_LS, JB_TR, JB_LP, JB_ULE), (JB_ESE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF), (JB_A, JB_LS, JB_TR, JB_ESE, JB_CP, JB_CBF, JB_LP, JB_ULE), (JB_ESE, JB_A, JB_LP, JB_ULE, JB_CP, JB_CBF, JB_LS, JB_TR), (JB_ESE, JB_A, JB_LP, JB_ULE, JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF), (JB_A, JB_LP, JB_ULE, JB_CP, JB_CBF, JB_LS, JB_TR, JB_ESE), (JB_CP, JB_DAE, JB_CBF, JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A), (JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_A, JB_LS, JB_TR, JB_ESE), (JB_LP, JB_ULE, JB_A, JB_CP, JB_DAE, JB_CBF, JB_LS, JB_TR, JB_ESE), (JB_ESE, JB_A, JB_CP, JB_CBF, JB_LS, JB_TR, JB_LP, JB_ULE), (JB_A, JB_LP, JB_ULE, JB_LS, JB_TR, JB_ESE, JB_CP, JB_CBF), (JB_CP, JB_CBF, JB_ESE, JB_LP, JB_ULE, JB_A, JB_LS, JB_TR), (JB_CP, JB_CBF, JB_LP, JB_ULE, JB_LS, JB_TR, JB_A, JB_ESE), (JB_LP, JB_ULE, JB_LS, JB_TR, JB_ESE, JB_CP, JB_CBF, JB_A), (JB_ESE, JB_A, JB_LS, JB_TR, JB_CP, JB_CBF, JB_LP, JB_ULE), (JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A, JB_CP, JB_CBF)]</t>
+  </si>
+  <si>
+    <t>[(JB_A, JB_CP, JB_CBF, JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE, JB_CP, JB_CBF, JB_A), (JB_ESE, JB_CP, JB_CBF, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE), (JB_ESE, JB_CP, JB_CBF, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A), (JB_A, JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_CBF), (JB_A, JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE, JB_CP, JB_CBF), (JB_LS, JB_TR, JB_A, JB_LP, JB_ULE, JB_CP, JB_CBF, JB_ESE), (JB_CP, JB_CBF, JB_LS, JB_TR, JB_ESE, JB_A, JB_LP, JB_ULE), (JB_CP, JB_CBF, JB_A, JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE), (JB_ESE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF), (JB_A, JB_LP, JB_ULE, JB_CP, JB_CBF, JB_LS, JB_TR, JB_ESE), (JB_CP, JB_DAE, JB_CBF, JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A), (JB_A, JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF), (JB_ESE, JB_A, JB_LS, JB_TR, JB_CP, JB_CBF, JB_LP, JB_ULE), (JB_LP, JB_ULE, JB_LS, JB_TR, JB_ESE, JB_CP, JB_CBF, JB_A), (JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A, JB_CP, JB_CBF)]</t>
+  </si>
+  <si>
+    <t>[(JB_CP, JB_CBF, JB_ESE, JB_A, JB_LS, JB_TR, JB_LP, JB_ULE), (JB_A, JB_LS, JB_TR, JB_CP, JB_CBF, JB_ESE, JB_LP, JB_ULE), (JB_ESE, JB_LS, JB_TR, JB_A, JB_CP, JB_CBF, JB_LP, JB_ULE), (JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_CBF, JB_A), (JB_A, JB_CP, JB_CBF, JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_CP, JB_CBF, JB_ESE, JB_A, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE, JB_CP, JB_CBF, JB_A), (JB_CP, JB_CBF, JB_A, JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE), (JB_ESE, JB_CP, JB_CBF, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE, JB_A, JB_CP, JB_CBF), (JB_ESE, JB_A, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_CBF), (JB_ESE, JB_CP, JB_CBF, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A), (JB_CP, JB_CBF, JB_A, JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE), (JB_A, JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_CBF), (JB_LS, JB_TR, JB_ESE, JB_CP, JB_CBF, JB_A, JB_LP, JB_ULE), (JB_A, JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE, JB_CP, JB_CBF), (JB_LS, JB_TR, JB_CP, JB_CBF, JB_LP, JB_ULE, JB_A, JB_ESE), (JB_LS, JB_TR, JB_ESE, JB_CP, JB_CBF, JB_LP, JB_ULE, JB_A), (JB_CP, JB_CBF, JB_ESE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_A, JB_LP, JB_ULE, JB_CP, JB_CBF, JB_ESE), (JB_CP, JB_CBF, JB_LS, JB_TR, JB_ESE, JB_A, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_ESE, JB_A, JB_LP, JB_ULE, JB_CP, JB_CBF), (JB_CP, JB_CBF, JB_A, JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_A, JB_ESE, JB_CP, JB_CBF, JB_LP, JB_ULE), (JB_ESE, JB_A, JB_CP, JB_DAE, JB_CBF, JB_LS, JB_TR, JB_LP, JB_ULE), (JB_ESE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF), (JB_A, JB_LS, JB_TR, JB_ESE, JB_CP, JB_CBF, JB_LP, JB_ULE), (JB_ESE, JB_A, JB_LP, JB_ULE, JB_CP, JB_CBF, JB_LS, JB_TR), (JB_ESE, JB_A, JB_LP, JB_ULE, JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF), (JB_A, JB_LP, JB_ULE, JB_CP, JB_CBF, JB_LS, JB_TR, JB_ESE), (JB_CP, JB_DAE, JB_CBF, JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A), (JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_A, JB_LS, JB_TR, JB_ESE), (JB_A, JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF), (JB_ESE, JB_A, JB_LS, JB_TR, JB_CP, JB_CBF, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_CP, JB_CBF, JB_LP, JB_ULE, JB_ESE, JB_A), (JB_LP, JB_ULE, JB_A, JB_CP, JB_DAE, JB_CBF, JB_LS, JB_TR, JB_ESE), (JB_ESE, JB_A, JB_CP, JB_CBF, JB_LS, JB_TR, JB_LP, JB_ULE), (JB_A, JB_LP, JB_ULE, JB_LS, JB_TR, JB_ESE, JB_CP, JB_CBF), (JB_CP, JB_CBF, JB_ESE, JB_LP, JB_ULE, JB_A, JB_LS, JB_TR), (JB_CP, JB_CBF, JB_LP, JB_ULE, JB_LS, JB_TR, JB_A, JB_ESE), (JB_LP, JB_ULE, JB_LS, JB_TR, JB_ESE, JB_CP, JB_CBF, JB_A), (JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A, JB_CP, JB_CBF)]</t>
+  </si>
+  <si>
+    <t>[(JB_LS, JB_TR, JB_ESE, JB_CP, JB_CBF, JB_A, JB_LP, JB_ULE), (JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A, JB_CP, JB_CBF), (JB_ESE, JB_LP, JB_ULE, JB_LS, JB_TR, JB_A, JB_CP, JB_CBF)]</t>
+  </si>
+  <si>
+    <t>[(JB_A, JB_LS, JB_TR, JB_ESE, JB_CP, JB_CBF, JB_LP, JB_ULE)]</t>
+  </si>
+  <si>
+    <t>[(JB_ESE, JB_LS, JB_TR, JB_A, JB_CP, JB_CBF, JB_LP, JB_ULE), (JB_CP, JB_CBF, JB_A, JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_ESE, JB_CP, JB_CBF, JB_A, JB_LP, JB_ULE), (JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A, JB_CP, JB_CBF), (JB_A, JB_ESE, JB_LS, JB_TR, JB_CP, JB_CBF, JB_LP, JB_ULE), (JB_A, JB_LS, JB_TR, JB_ESE, JB_CP, JB_CBF, JB_LP, JB_ULE), (JB_ESE, JB_LP, JB_ULE, JB_LS, JB_TR, JB_A, JB_CP, JB_CBF)]</t>
+  </si>
+  <si>
+    <t>[(JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_CBF, JB_A), (JB_A, JB_LS, JB_TR, JB_CP, JB_CBF, JB_LP, JB_ULE, JB_ESE), (JB_LS, JB_TR, JB_ESE, JB_CP, JB_CBF, JB_A, JB_LP, JB_ULE), (JB_A, JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE, JB_CP, JB_CBF), (JB_A, JB_ESE, JB_LS, JB_TR, JB_CP, JB_CBF, JB_LP, JB_ULE), (JB_A, JB_LS, JB_TR, JB_ESE, JB_CP, JB_CBF, JB_LP, JB_ULE)]</t>
+  </si>
+  <si>
+    <t>[(JB_ESE, JB_LS, JB_TR, JB_A, JB_CP, JB_CBF, JB_LP, JB_ULE), (JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_CBF, JB_A), (JB_LS, JB_TR, JB_CP, JB_CBF, JB_ESE, JB_A, JB_LP, JB_ULE), (JB_A, JB_LS, JB_TR, JB_CP, JB_CBF, JB_LP, JB_ULE, JB_ESE), (JB_CP, JB_CBF, JB_A, JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_ESE, JB_CP, JB_CBF, JB_A, JB_LP, JB_ULE), (JB_A, JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE, JB_CP, JB_CBF), (JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A, JB_CP, JB_CBF), (JB_A, JB_ESE, JB_LP, JB_ULE, JB_CP, JB_CBF, JB_LS, JB_TR), (JB_A, JB_ESE, JB_LS, JB_TR, JB_CP, JB_CBF, JB_LP, JB_ULE), (JB_A, JB_LS, JB_TR, JB_ESE, JB_CP, JB_CBF, JB_LP, JB_ULE), (JB_ESE, JB_LP, JB_ULE, JB_LS, JB_TR, JB_A, JB_CP, JB_CBF), (JB_A, JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE, JB_CP, JB_CBF)]</t>
+  </si>
+  <si>
+    <t>[(JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_CBF, JB_A), (JB_A, JB_LS, JB_TR, JB_CP, JB_CBF, JB_LP, JB_ULE, JB_ESE), (JB_A, JB_ESE, JB_LS, JB_TR, JB_CP, JB_CBF, JB_LP, JB_ULE), (JB_A, JB_LS, JB_TR, JB_ESE, JB_CP, JB_CBF, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_ESE, JB_CP, JB_CBF, JB_A, JB_LP, JB_ULE), (JB_A, JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE, JB_CP, JB_CBF), (JB_A, JB_LS, JB_TR, JB_CP, JB_CBF, JB_ESE, JB_LP, JB_ULE), (JB_A, JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE, JB_CP, JB_CBF)]</t>
+  </si>
+  <si>
+    <t>[(JB_LS, JB_TR, JB_A, JB_ESE, JB_CP, JB_CBF, JB_LP, JB_ULE), (JB_ESE, JB_LS, JB_TR, JB_A, JB_CP, JB_CBF, JB_LP, JB_ULE), (JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_CBF, JB_A), (JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_CBF, JB_A, JB_ESE), (JB_LS, JB_TR, JB_CP, JB_CBF, JB_ESE, JB_A, JB_LP, JB_ULE), (JB_A, JB_LS, JB_TR, JB_CP, JB_CBF, JB_LP, JB_ULE, JB_ESE), (JB_A, JB_ESE, JB_LS, JB_TR, JB_CP, JB_CBF, JB_LP, JB_ULE), (JB_CP, JB_CBF, JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE, JB_A), (JB_A, JB_LS, JB_TR, JB_ESE, JB_CP, JB_CBF, JB_LP, JB_ULE), (JB_CP, JB_CBF, JB_A, JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_ESE, JB_CP, JB_CBF, JB_A, JB_LP, JB_ULE), (JB_A, JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE, JB_CP, JB_CBF), (JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A, JB_CP, JB_CBF), (JB_A, JB_ESE, JB_CP, JB_CBF, JB_LS, JB_TR, JB_LP, JB_ULE), (JB_A, JB_LS, JB_TR, JB_CP, JB_CBF, JB_ESE, JB_LP, JB_ULE), (JB_A, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_LS, JB_TR, JB_LP, JB_ULE), (JB_A, JB_ESE, JB_LP, JB_ULE, JB_CP, JB_CBF, JB_LS, JB_TR), (JB_ESE, JB_A, JB_CP, JB_CBF, JB_LS, JB_TR, JB_LP, JB_ULE), (JB_ESE, JB_LP, JB_ULE, JB_LS, JB_TR, JB_A, JB_CP, JB_CBF), (JB_A, JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE, JB_CP, JB_CBF)]</t>
+  </si>
+  <si>
+    <t>[(JB_ESE, JB_A, JB_CP, JB_CBF, JB_LS, JB_TR, JB_LP, JB_ULE), (JB_ESE, JB_LS, JB_TR, JB_A, JB_CP, JB_CBF, JB_LP, JB_ULE), (JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_CBF, JB_A), (JB_A, JB_LS, JB_TR, JB_CP, JB_CBF, JB_LP, JB_ULE, JB_ESE), (JB_A, JB_ESE, JB_LS, JB_TR, JB_CP, JB_CBF, JB_LP, JB_ULE), (JB_CP, JB_CBF, JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE, JB_A), (JB_A, JB_LS, JB_TR, JB_ESE, JB_CP, JB_CBF, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_ESE, JB_CP, JB_CBF, JB_A, JB_LP, JB_ULE), (JB_A, JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE, JB_CP, JB_CBF), (JB_A, JB_ESE, JB_CP, JB_CBF, JB_LS, JB_TR, JB_LP, JB_ULE), (JB_A, JB_LS, JB_TR, JB_CP, JB_CBF, JB_ESE, JB_LP, JB_ULE), (JB_A, JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE, JB_CP, JB_CBF)]</t>
+  </si>
+  <si>
+    <t>[(JB_LS, JB_TR, JB_A, JB_ESE, JB_CP, JB_CBF, JB_LP, JB_ULE), (JB_ESE, JB_A, JB_CP, JB_CBF, JB_LS, JB_TR, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_A, JB_CP, JB_CBF, JB_ESE, JB_LP, JB_ULE), (JB_ESE, JB_LS, JB_TR, JB_A, JB_CP, JB_CBF, JB_LP, JB_ULE), (JB_A, JB_LS, JB_TR, JB_CBF, JB_ESE, JB_LP, JB_ULE), (JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_CBF, JB_A), (JB_A, JB_CP, JB_CBF, JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_CBF, JB_A, JB_ESE), (JB_LS, JB_TR, JB_CP, JB_CBF, JB_ESE, JB_A, JB_LP, JB_ULE), (JB_A, JB_LS, JB_TR, JB_CP, JB_CBF, JB_LP, JB_ULE, JB_ESE), (JB_A, JB_ESE, JB_LS, JB_TR, JB_CP, JB_CBF, JB_LP, JB_ULE), (JB_CP, JB_CBF, JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE, JB_A), (JB_A, JB_LS, JB_TR, JB_ESE, JB_CP, JB_CBF, JB_LP, JB_ULE), (JB_A, JB_CP, JB_CBF, JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE), (JB_CP, JB_CBF, JB_A, JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_ESE, JB_CP, JB_CBF, JB_A, JB_LP, JB_ULE), (JB_A, JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE, JB_CP, JB_CBF), (JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A, JB_CP, JB_CBF), (JB_A, JB_ESE, JB_CP, JB_CBF, JB_LS, JB_TR, JB_LP, JB_ULE), (JB_A, JB_LS, JB_TR, JB_CP, JB_CBF, JB_ESE, JB_LP, JB_ULE), (JB_A, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_LS, JB_TR, JB_LP, JB_ULE), (JB_A, JB_ESE, JB_LP, JB_ULE, JB_CP, JB_CBF, JB_LS, JB_TR), (JB_ESE, JB_LP, JB_ULE, JB_LS, JB_TR, JB_A, JB_CP, JB_CBF), (JB_A, JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE, JB_CP, JB_CBF)]</t>
+  </si>
+  <si>
+    <t>[(JB_ESE, JB_A, JB_CP, JB_CBF, JB_LS, JB_TR, JB_LP, JB_ULE), (JB_ESE, JB_LS, JB_TR, JB_A, JB_CP, JB_CBF, JB_LP, JB_ULE), (JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_CBF, JB_A), (JB_A, JB_CP, JB_CBF, JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE), (JB_A, JB_LS, JB_TR, JB_CP, JB_CBF, JB_LP, JB_ULE, JB_ESE), (JB_A, JB_ESE, JB_LS, JB_TR, JB_CP, JB_CBF, JB_LP, JB_ULE), (JB_CP, JB_CBF, JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE, JB_A), (JB_A, JB_LS, JB_TR, JB_ESE, JB_CP, JB_CBF, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_ESE, JB_CP, JB_CBF, JB_A, JB_LP, JB_ULE), (JB_A, JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE, JB_CP, JB_CBF), (JB_ESE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE, JB_CP, JB_CBF), (JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A, JB_CP, JB_CBF), (JB_A, JB_ESE, JB_CP, JB_CBF, JB_LS, JB_TR, JB_LP, JB_ULE), (JB_A, JB_LS, JB_TR, JB_CP, JB_CBF, JB_ESE, JB_LP, JB_ULE), (JB_A, JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE, JB_CP, JB_CBF)]</t>
+  </si>
+  <si>
+    <t>[(JB_LS, JB_TR, JB_A, JB_ESE, JB_CP, JB_CBF, JB_LP, JB_ULE), (JB_ESE, JB_A, JB_CP, JB_CBF, JB_LS, JB_TR, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_A, JB_CP, JB_CBF, JB_ESE, JB_LP, JB_ULE), (JB_ESE, JB_LS, JB_TR, JB_A, JB_CP, JB_CBF, JB_LP, JB_ULE), (JB_A, JB_LS, JB_TR, JB_CBF, JB_ESE, JB_LP, JB_ULE), (JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_CBF, JB_A), (JB_A, JB_CP, JB_CBF, JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_CBF, JB_A, JB_ESE), (JB_LS, JB_TR, JB_CP, JB_CBF, JB_ESE, JB_A, JB_LP, JB_ULE), (JB_A, JB_LS, JB_TR, JB_CP, JB_CBF, JB_LP, JB_ULE, JB_ESE), (JB_A, JB_ESE, JB_LS, JB_TR, JB_CP, JB_CBF, JB_LP, JB_ULE), (JB_CP, JB_CBF, JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE, JB_A), (JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE, JB_CP, JB_CBF, JB_A), (JB_A, JB_LS, JB_TR, JB_ESE, JB_CP, JB_CBF, JB_LP, JB_ULE), (JB_ESE, JB_CP, JB_CBF, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A), (JB_A, JB_CP, JB_CBF, JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE), (JB_CP, JB_CBF, JB_A, JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_ESE, JB_CP, JB_CBF, JB_A, JB_LP, JB_ULE), (JB_A, JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE, JB_CP, JB_CBF), (JB_ESE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE, JB_CP, JB_CBF), (JB_CP, JB_CBF, JB_LS, JB_TR, JB_ESE, JB_A, JB_LP, JB_ULE), (JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A, JB_CP, JB_CBF), (JB_LS, JB_TR, JB_A, JB_ESE, JB_LP, JB_ULE, JB_CP, JB_CBF), (JB_A, JB_ESE, JB_CP, JB_CBF, JB_LS, JB_TR, JB_LP, JB_ULE), (JB_A, JB_CP, JB_CBF, JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE), (JB_A, JB_LS, JB_TR, JB_CP, JB_CBF, JB_ESE, JB_LP, JB_ULE), (JB_A, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_LS, JB_TR, JB_LP, JB_ULE), (JB_A, JB_ESE, JB_LP, JB_ULE, JB_CP, JB_CBF, JB_LS, JB_TR), (JB_ESE, JB_LP, JB_ULE, JB_LS, JB_TR, JB_A, JB_CP, JB_CBF), (JB_A, JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE, JB_CP, JB_CBF)]</t>
+  </si>
+  <si>
+    <t>[(JB_LS, JB_TR, JB_ESE, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE)]</t>
+  </si>
+  <si>
+    <t>[(JB_A, JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_LS, JB_TR, JB_ESE, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LP, JB_ULE)]</t>
+  </si>
+  <si>
+    <t>[(JB_LS, JB_TR, JB_A, JB_ESE, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_A, JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_A, JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A, JB_ESE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_ESE, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LP, JB_ULE)]</t>
+  </si>
+  <si>
+    <t>[(JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A, JB_ESE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_A, JB_ESE, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_A, JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE), (JB_A, JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_A, JB_ESE, JB_LS, JB_TR, JB_CP, JB_DAE, JB_LP, JB_ULE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A), (JB_LS, JB_TR, JB_ESE, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LP, JB_ULE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE, JB_A), (JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_A, JB_ESE, JB_LP, JB_ULE)]</t>
+  </si>
+  <si>
+    <t>[(JB_LS, JB_TR, JB_A, JB_ESE, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE, JB_A)]</t>
+  </si>
+  <si>
+    <t>[(JB_ESE, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_LP, JB_ULE), (JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_ESE, JB_A), (JB_LS, JB_TR, JB_A, JB_LP, JB_ULE, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_LS, JB_TR, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_A, JB_ESE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A, JB_ESE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_A, JB_ESE, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_A, JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE), (JB_A, JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_A, JB_ESE, JB_LS, JB_TR, JB_CP, JB_DAE, JB_LP, JB_ULE), (JB_ESE, JB_LS, JB_TR, JB_A, JB_CP, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A), (JB_LS, JB_TR, JB_ESE, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LP, JB_ULE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE, JB_A), (JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_A, JB_ESE, JB_LP, JB_ULE)]</t>
+  </si>
+  <si>
+    <t>[(JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_ESE, JB_A), (JB_LS, JB_TR, JB_A, JB_ESE, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_A, JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE, JB_A)]</t>
+  </si>
+  <si>
+    <t>[(JB_ESE, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_LP, JB_ULE), (JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_ESE, JB_A), (JB_ESE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A), (JB_LS, JB_TR, JB_A, JB_LP, JB_ULE, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_LS, JB_TR, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_A, JB_ESE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A, JB_ESE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_A, JB_ESE, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_A, JB_LS, JB_TR, JB_LP, JB_ULE), (JB_A, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_CBF, JB_UCE, JB_ESE), (JB_A, JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A), (JB_A, JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_A, JB_ESE, JB_LS, JB_TR, JB_CP, JB_DAE, JB_LP, JB_ULE), (JB_ESE, JB_LS, JB_TR, JB_A, JB_CP, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A), (JB_LS, JB_TR, JB_ESE, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE, JB_A), (JB_LS, JB_TR, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LP, JB_ULE), (JB_ESE, JB_A, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE, JB_ESE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_A, JB_LP, JB_ULE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE, JB_A), (JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE), (JB_ESE, JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_A), (JB_A, JB_ESE, JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_A, JB_ESE, JB_LP, JB_ULE)]</t>
+  </si>
+  <si>
+    <t>[(JB_LS, JB_TR, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_ESE, JB_A), (JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A), (JB_LS, JB_TR, JB_A, JB_ESE, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_A, JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A), (JB_LS, JB_TR, JB_ESE, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE, JB_A)]</t>
+  </si>
+  <si>
+    <t>[(JB_LS, JB_TR, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LP, JB_ULE), (JB_ESE, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_LP, JB_ULE), (JB_A, JB_ESE, JB_CP, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_LP, JB_ULE), (JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_ESE, JB_A), (JB_ESE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_ESE, JB_LS, JB_TR, JB_A, JB_CP, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A), (JB_LS, JB_TR, JB_A, JB_LP, JB_ULE, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LP, JB_ULE, JB_A), (JB_LS, JB_TR, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_A, JB_ESE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A, JB_ESE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_A, JB_ESE, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_A, JB_LS, JB_TR, JB_LP, JB_ULE), (JB_A, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_CBF, JB_UCE, JB_ESE), (JB_LS, JB_TR, JB_ESE, JB_A, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_A, JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE), (JB_A, JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LP, JB_ULE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A), (JB_A, JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_ESE, JB_A, JB_LS, JB_TR, JB_CP, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_A, JB_ESE, JB_LS, JB_TR, JB_CP, JB_DAE, JB_LP, JB_ULE), (JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A), (JB_LS, JB_TR, JB_ESE, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE, JB_A), (JB_A, JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_ESE), (JB_ESE, JB_A, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE, JB_ESE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_A, JB_LP, JB_ULE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE, JB_A), (JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE), (JB_ESE, JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_A), (JB_A, JB_ESE, JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_A, JB_ESE, JB_LP, JB_ULE)]</t>
+  </si>
+  <si>
+    <t>[(JB_LS, JB_TR, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_ESE, JB_A), (JB_ESE, JB_LS, JB_TR, JB_A, JB_CP, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_A, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A), (JB_LS, JB_TR, JB_A, JB_ESE, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_ESE, JB_A, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_A, JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_A, JB_ESE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_ESE, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE, JB_A)]</t>
+  </si>
+  <si>
+    <t>[(JB_LS, JB_TR, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LP, JB_ULE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_ESE, JB_A, JB_LP, JB_ULE), (JB_ESE, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_LP, JB_ULE), (JB_A, JB_ESE, JB_CP, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_LP, JB_ULE), (JB_A, JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_ESE, JB_A), (JB_ESE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_ESE, JB_LS, JB_TR, JB_A, JB_CP, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_A, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A), (JB_LS, JB_TR, JB_A, JB_LP, JB_ULE, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LP, JB_ULE, JB_A), (JB_LS, JB_TR, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_A, JB_ESE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A, JB_ESE, JB_LP, JB_ULE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A, JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_A, JB_ESE, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_A, JB_LS, JB_TR, JB_LP, JB_ULE), (JB_A, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_CBF, JB_UCE, JB_ESE), (JB_LS, JB_TR, JB_ESE, JB_A, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_A, JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE), (JB_A, JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_A, JB_ESE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_A), (JB_A, JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_ESE, JB_A, JB_LS, JB_TR, JB_CP, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_A, JB_ESE, JB_LS, JB_TR, JB_CP, JB_DAE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_A, JB_LP, JB_ULE, JB_ESE, JB_CP, JB_DAE), (JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A), (JB_LS, JB_TR, JB_ESE, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE, JB_A), (JB_A, JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_ESE), (JB_ESE, JB_A, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE, JB_ESE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE, JB_A), (JB_ESE, JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_A), (JB_A, JB_ESE, JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE)]</t>
+  </si>
+  <si>
+    <t>[(JB_LS, JB_TR, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LP, JB_ULE), (JB_A, JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_ESE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_ESE, JB_A), (JB_ESE, JB_LS, JB_TR, JB_A, JB_CP, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_A, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A), (JB_LS, JB_TR, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_A, JB_ESE, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_ESE, JB_A, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_A, JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_A, JB_ESE, JB_LP, JB_ULE), (JB_A, JB_ESE, JB_LS, JB_TR, JB_CP, JB_DAE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_ESE, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE, JB_A)]</t>
+  </si>
+  <si>
+    <t>[(JB_LS, JB_TR, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LP, JB_ULE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_ESE, JB_A, JB_LP, JB_ULE), (JB_A, JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_ESE), (JB_ESE, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_LP, JB_ULE), (JB_A, JB_ESE, JB_CP, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_LP, JB_ULE), (JB_A, JB_ESE, JB_LS, JB_TR, JB_CP, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_A, JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_ESE, JB_A), (JB_ESE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_ESE, JB_LS, JB_TR, JB_A, JB_CP, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_A, JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_CBF, JB_UCE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_A, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A), (JB_LS, JB_TR, JB_A, JB_LP, JB_ULE, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LP, JB_ULE, JB_A), (JB_LS, JB_TR, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_A, JB_ESE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A, JB_ESE, JB_LP, JB_ULE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A, JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_A, JB_ESE, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE), (JB_ESE, JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_A), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_A, JB_LS, JB_TR, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A), (JB_A, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_CBF, JB_UCE, JB_ESE), (JB_LS, JB_TR, JB_ESE, JB_A, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A, JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE), (JB_A, JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE), (JB_A, JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LP, JB_ULE), (JB_A, JB_ESE, JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_A, JB_ESE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_A), (JB_A, JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE, JB_ESE), (JB_ESE, JB_A, JB_LS, JB_TR, JB_CP, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_A, JB_ESE, JB_LS, JB_TR, JB_CP, JB_DAE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A, JB_LP, JB_ULE, JB_ESE), (JB_LS, JB_TR, JB_A, JB_LP, JB_ULE, JB_ESE, JB_CP, JB_DAE), (JB_A, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE), (JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A), (JB_ESE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE, JB_CP, JB_CBF, JB_UCE), (JB_LS, JB_TR, JB_A, JB_ESE, JB_LP, JB_ULE, JB_CP, JB_CBF, JB_UCE), (JB_LS, JB_TR, JB_ESE, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE, JB_A), (JB_ESE, JB_A, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_LS, JB_TR, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_A), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE, JB_A)]</t>
+  </si>
+  <si>
+    <t>[(JB_LS, JB_TR, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LP, JB_ULE), (JB_A, JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_ESE), (JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_ESE, JB_A), (JB_ESE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_ESE, JB_LS, JB_TR, JB_A, JB_CP, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_A, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A), (JB_LS, JB_TR, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_A, JB_ESE, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE), (JB_ESE, JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_A), (JB_LS, JB_TR, JB_ESE, JB_A, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_A, JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_A, JB_ESE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_A), (JB_A, JB_ESE, JB_LS, JB_TR, JB_CP, JB_DAE, JB_LP, JB_ULE), (JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A), (JB_LS, JB_TR, JB_ESE, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE, JB_A)]</t>
+  </si>
+  <si>
+    <t>[(JB_LS, JB_TR, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LP, JB_ULE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_ESE, JB_A, JB_LP, JB_ULE), (JB_A, JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_ESE), (JB_ESE, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_LP, JB_ULE), (JB_A, JB_ESE, JB_CP, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_LP, JB_ULE), (JB_A, JB_ESE, JB_LS, JB_TR, JB_CP, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_A, JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_ESE, JB_A), (JB_ESE, JB_A, JB_LS, JB_TR, JB_CP, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_A, JB_LS, JB_TR, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_ESE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_ESE, JB_LS, JB_TR, JB_A, JB_CP, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_A, JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_CBF, JB_UCE), (JB_A, JB_LS, JB_TR, JB_CP, JB_CBF, JB_UCE, JB_ESE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_A), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_A, JB_LP, JB_ULE), (JB_ESE, JB_LS, JB_TR, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A), (JB_LS, JB_TR, JB_A, JB_LP, JB_ULE, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LP, JB_ULE, JB_A), (JB_LS, JB_TR, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_A, JB_ESE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A, JB_ESE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_A, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A, JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_A, JB_ESE, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE), (JB_ESE, JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_A), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_A, JB_LS, JB_TR, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A), (JB_A, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_CBF, JB_UCE, JB_ESE), (JB_ESE, JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_CBF, JB_UCE, JB_A, JB_ESE), (JB_LS, JB_TR, JB_ESE, JB_A, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A, JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A, JB_ESE), (JB_A, JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE), (JB_A, JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LP, JB_ULE), (JB_A, JB_ESE, JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_A, JB_ESE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_A), (JB_A, JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE, JB_ESE), (JB_CP, JB_DAE, JB_LS, JB_TR, JB_ESE, JB_A, JB_LP, JB_ULE), (JB_A, JB_ESE, JB_LS, JB_TR, JB_CP, JB_DAE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A, JB_LP, JB_ULE, JB_ESE), (JB_LS, JB_TR, JB_A, JB_LP, JB_ULE, JB_ESE, JB_CP, JB_DAE), (JB_A, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE), (JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A), (JB_ESE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE, JB_CP, JB_CBF, JB_UCE), (JB_ESE, JB_A, JB_LS, JB_TR, JB_CP, JB_DAE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_A, JB_ESE, JB_LP, JB_ULE, JB_CP, JB_CBF, JB_UCE), (JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_LS, JB_TR, JB_ESE, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE, JB_A), (JB_ESE, JB_A, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE, JB_A), (JB_CP, JB_DAE, JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE, JB_A), (JB_LS, JB_TR, JB_A, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_A, JB_LS, JB_TR, JB_CP, JB_DAE, JB_LP, JB_ULE, JB_ESE)]</t>
+  </si>
+  <si>
+    <t>[(JB_LS, JB_TR, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LP, JB_ULE), (JB_A, JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_ESE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE, JB_ESE), (JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_ESE, JB_A), (JB_ESE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_ESE, JB_LS, JB_TR, JB_A, JB_CP, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_A, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A), (JB_LS, JB_TR, JB_A, JB_LP, JB_ULE, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LP, JB_ULE, JB_A), (JB_LS, JB_TR, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_A, JB_ESE), (JB_LS, JB_TR, JB_A, JB_ESE, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE), (JB_ESE, JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_A), (JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A), (JB_LS, JB_TR, JB_ESE, JB_A, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_A, JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE), (JB_A, JB_ESE, JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_A, JB_ESE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_A), (JB_A, JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_A, JB_ESE, JB_LS, JB_TR, JB_CP, JB_DAE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_ESE, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_ESE, JB_A, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE, JB_A)]</t>
+  </si>
+  <si>
+    <t>[(JB_LS, JB_TR, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LP, JB_ULE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_ESE, JB_A, JB_LP, JB_ULE), (JB_A, JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_ESE), (JB_ESE, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_LP, JB_ULE), (JB_A, JB_ESE, JB_CP, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_LP, JB_ULE), (JB_A, JB_ESE, JB_LS, JB_TR, JB_CP, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_A, JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE, JB_ESE), (JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_ESE, JB_A), (JB_ESE, JB_A, JB_LS, JB_TR, JB_CP, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_A, JB_LS, JB_TR, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_ESE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_ESE, JB_LS, JB_TR, JB_A, JB_CP, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_A, JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_CBF, JB_UCE), (JB_A, JB_LS, JB_TR, JB_CP, JB_CBF, JB_UCE, JB_ESE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_A), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_A, JB_LP, JB_ULE), (JB_ESE, JB_LS, JB_TR, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A), (JB_LS, JB_TR, JB_A, JB_LP, JB_ULE, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LP, JB_ULE, JB_A), (JB_LS, JB_TR, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_A, JB_ESE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A, JB_ESE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_A, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A, JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_A, JB_ESE, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE), (JB_ESE, JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_A), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_A, JB_LS, JB_TR, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A), (JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A), (JB_A, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_CBF, JB_UCE, JB_ESE), (JB_ESE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE, JB_CP, JB_CBF, JB_UCE), (JB_ESE, JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_CBF, JB_UCE, JB_A, JB_ESE), (JB_LS, JB_TR, JB_ESE, JB_A, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_CP, JB_DAE, JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE, JB_A), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A, JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A, JB_ESE), (JB_A, JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_A, JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE, JB_CP, JB_CBF, JB_UCE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE), (JB_A, JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LP, JB_ULE), (JB_A, JB_ESE, JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_A, JB_ESE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_A), (JB_A, JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_A), (JB_CP, JB_DAE, JB_LS, JB_TR, JB_ESE, JB_A, JB_LP, JB_ULE), (JB_A, JB_ESE, JB_LS, JB_TR, JB_CP, JB_DAE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A, JB_LP, JB_ULE, JB_ESE), (JB_A, JB_ESE, JB_CP, JB_DAE, JB_LS, JB_TR, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_A, JB_LP, JB_ULE, JB_ESE, JB_CP, JB_DAE), (JB_A, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE), (JB_ESE, JB_A, JB_LS, JB_TR, JB_CP, JB_DAE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_A, JB_ESE, JB_LP, JB_ULE, JB_CP, JB_CBF, JB_UCE), (JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_LS, JB_TR, JB_ESE, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE, JB_A), (JB_ESE, JB_A, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_LS, JB_TR, JB_LP, JB_ULE, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE, JB_A), (JB_A, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_ESE), (JB_LS, JB_TR, JB_A, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A, JB_ESE), (JB_A, JB_LS, JB_TR, JB_CP, JB_DAE, JB_LP, JB_ULE, JB_ESE)]</t>
+  </si>
+  <si>
+    <t>[(JB_LS, JB_TR, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LP, JB_ULE), (JB_A, JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_ESE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE, JB_ESE), (JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_ESE, JB_A), (JB_ESE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_ESE, JB_LS, JB_TR, JB_A, JB_CP, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_A, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A), (JB_LS, JB_TR, JB_A, JB_LP, JB_ULE, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LP, JB_ULE, JB_A), (JB_LS, JB_TR, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_A, JB_ESE), (JB_LS, JB_TR, JB_A, JB_ESE, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE), (JB_ESE, JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_A), (JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A), (JB_ESE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE, JB_CP, JB_CBF, JB_UCE), (JB_ESE, JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_ESE, JB_A, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_CP, JB_DAE, JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE, JB_A), (JB_A, JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE), (JB_A, JB_ESE, JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_A, JB_ESE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_A), (JB_A, JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_A, JB_ESE, JB_LS, JB_TR, JB_CP, JB_DAE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_A, JB_LP, JB_ULE, JB_ESE, JB_CP, JB_DAE), (JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_LS, JB_TR, JB_ESE, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_ESE, JB_A, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE, JB_A)]</t>
+  </si>
+  <si>
+    <t>[(JB_LS, JB_TR, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LP, JB_ULE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_ESE, JB_A, JB_LP, JB_ULE), (JB_A, JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_ESE), (JB_ESE, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_LP, JB_ULE), (JB_A, JB_ESE, JB_CP, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_LP, JB_ULE), (JB_A, JB_ESE, JB_LS, JB_TR, JB_CP, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_LP, JB_ULE, JB_A, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_A, JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE, JB_ESE), (JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_ESE, JB_A), (JB_ESE, JB_A, JB_LS, JB_TR, JB_CP, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_A, JB_LS, JB_TR, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_ESE), (JB_ESE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_A, JB_CP, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE), (JB_ESE, JB_LS, JB_TR, JB_A, JB_CP, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_A, JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_CBF, JB_UCE), (JB_A, JB_LS, JB_TR, JB_CP, JB_CBF, JB_UCE, JB_ESE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_A), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_A, JB_LP, JB_ULE), (JB_ESE, JB_LS, JB_TR, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A), (JB_LS, JB_TR, JB_A, JB_LP, JB_ULE, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LP, JB_ULE, JB_A), (JB_LS, JB_TR, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_A, JB_ESE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A, JB_ESE, JB_LP, JB_ULE), (JB_A, JB_LS, JB_TR, JB_ESE, JB_CP, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_A, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A, JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_A, JB_ESE, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE), (JB_ESE, JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE, JB_A), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_A, JB_LS, JB_TR, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A), (JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A), (JB_A, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_CBF, JB_UCE, JB_ESE), (JB_ESE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE, JB_CP, JB_CBF, JB_UCE), (JB_ESE, JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_CBF, JB_UCE, JB_A, JB_ESE), (JB_LS, JB_TR, JB_ESE, JB_A, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_CP, JB_DAE, JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE, JB_A), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A, JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A, JB_ESE), (JB_A, JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_A, JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE, JB_CP, JB_CBF, JB_UCE), (JB_A, JB_CP, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A, JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LS, JB_TR, JB_A, JB_LP, JB_ULE), (JB_A, JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LP, JB_ULE), (JB_A, JB_ESE, JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_A, JB_ESE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE, JB_A), (JB_A, JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_A), (JB_CP, JB_DAE, JB_LS, JB_TR, JB_ESE, JB_A, JB_LP, JB_ULE), (JB_A, JB_ESE, JB_LS, JB_TR, JB_CP, JB_DAE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A, JB_LP, JB_ULE, JB_ESE), (JB_A, JB_ESE, JB_CP, JB_DAE, JB_LS, JB_TR, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_A, JB_LP, JB_ULE, JB_ESE, JB_CP, JB_DAE), (JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_A, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE), (JB_ESE, JB_A, JB_LS, JB_TR, JB_CP, JB_DAE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_A, JB_ESE, JB_LP, JB_ULE, JB_CP, JB_CBF, JB_UCE), (JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_A, JB_LS, JB_TR, JB_ESE, JB_CP, JB_DAE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_ESE, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_ESE, JB_LP, JB_ULE, JB_A), (JB_ESE, JB_A, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE), (JB_LS, JB_TR, JB_LP, JB_ULE, JB_A, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_ESE), (JB_A, JB_ESE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE), (JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE, JB_A), (JB_A, JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_ESE), (JB_LS, JB_TR, JB_A, JB_ESE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_LP, JB_ULE), (JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_DAE, JB_CBF, JB_UCE, JB_A, JB_ESE), (JB_A, JB_LS, JB_TR, JB_CP, JB_DAE, JB_LP, JB_ULE, JB_ESE)]</t>
+  </si>
+  <si>
+    <t>[(JB_LP, JB_ULE, JB_CP, JB_ESE, JB_A, JB_LS, JB_TR), (JB_LP, JB_ULE, JB_LS, JB_TR, JB_CP, JB_A, JB_ESE)]</t>
+  </si>
+  <si>
+    <t>[(JB_LP, JB_ULE, JB_CP, JB_ESE, JB_A, JB_LS, JB_TR), (JB_CP, JB_A, JB_LP, JB_ULE, JB_ESE, JB_LS, JB_TR)]</t>
+  </si>
+  <si>
+    <t>[(JB_LP, JB_ULE, JB_CP, JB_ESE, JB_A, JB_LS, JB_TR), (JB_LP, JB_ULE, JB_ESE, JB_CP, JB_A, JB_LS, JB_TR), (JB_LP, JB_ULE, JB_CP, JB_A, JB_ESE, JB_LS, JB_TR), (JB_CP, JB_A, JB_LP, JB_ULE, JB_ESE, JB_LS, JB_TR), (JB_LP, JB_ULE, JB_CP, JB_A, JB_LS, JB_TR, JB_ESE), (JB_LP, JB_ULE, JB_ESE, JB_LS, JB_TR, JB_CP, JB_A), (JB_LP, JB_ULE, JB_LS, JB_TR, JB_CP, JB_A, JB_ESE)]</t>
+  </si>
+  <si>
+    <t>[(JB_LP, JB_ULE, JB_CP, JB_LS, JB_TR, JB_ESE, JB_A), (JB_LP, JB_ULE, JB_CP, JB_ESE, JB_A, JB_LS, JB_TR), (JB_LP, JB_ULE, JB_ESE, JB_CP, JB_A, JB_LS, JB_TR), (JB_LP, JB_ULE, JB_CP, JB_A, JB_ESE, JB_LS, JB_TR), (JB_CP, JB_A, JB_LP, JB_ULE, JB_ESE, JB_LS, JB_TR), (JB_LP, JB_ULE, JB_CP, JB_A, JB_LS, JB_TR, JB_ESE), (JB_CP, JB_LP, JB_ULE, JB_ESE, JB_A, JB_LS, JB_TR), (JB_LP, JB_ULE, JB_ESE, JB_LS, JB_TR, JB_CP, JB_A), (JB_LP, JB_ULE, JB_CP, JB_LS, JB_TR, JB_A, JB_ESE), (JB_LP, JB_ULE, JB_LS, JB_TR, JB_CP, JB_A, JB_ESE)]</t>
+  </si>
+  <si>
+    <t>[(JB_LP, JB_ULE, JB_CP, JB_ESE, JB_A, JB_LS, JB_TR), (JB_LP, JB_ULE, JB_ESE, JB_LS, JB_TR, JB_CP, JB_A), (JB_CP, JB_A, JB_LP, JB_ULE, JB_ESE, JB_LS, JB_TR), (JB_LP, JB_ULE, JB_LS, JB_TR, JB_CP, JB_A, JB_ESE)]</t>
+  </si>
+  <si>
+    <t>[(JB_LP, JB_ULE, JB_CP, JB_LS, JB_TR, JB_ESE, JB_A), (JB_LP, JB_ULE, JB_ESE, JB_A, JB_LS, JB_TR, JB_CP), (JB_LP, JB_ULE, JB_CP, JB_ESE, JB_A, JB_LS, JB_TR), (JB_LP, JB_ULE, JB_LS, JB_TR, JB_ESE, JB_A, JB_CP), (JB_LP, JB_ULE, JB_ESE, JB_A, JB_CP, JB_LS, JB_TR), (JB_LP, JB_ULE, JB_ESE, JB_LS, JB_TR, JB_CP, JB_A), (JB_LP, JB_ULE, JB_ESE, JB_CP, JB_A, JB_LS, JB_TR), (JB_LP, JB_ULE, JB_CP, JB_A, JB_ESE, JB_LS, JB_TR), (JB_CP, JB_A, JB_LP, JB_ULE, JB_ESE, JB_LS, JB_TR), (JB_LP, JB_ULE, JB_A, JB_ESE, JB_CP, JB_LS, JB_TR), (JB_CP, JB_A, JB_ESE, JB_LP, JB_ULE, JB_LS, JB_TR), (JB_LP, JB_ULE, JB_CP, JB_ESE, JB_LS, JB_TR, JB_A), (JB_CP, JB_LP, JB_ULE, JB_A, JB_LS, JB_TR, JB_ESE), (JB_LP, JB_ULE, JB_CP, JB_A, JB_LS, JB_TR, JB_ESE), (JB_CP, JB_LP, JB_ULE, JB_ESE, JB_A, JB_LS, JB_TR), (JB_LP, JB_ULE, JB_LS, JB_TR, JB_CP, JB_A, JB_ESE), (JB_LP, JB_ULE, JB_CP, JB_LS, JB_TR, JB_A, JB_ESE)]</t>
+  </si>
+  <si>
+    <t>nlargest</t>
+  </si>
+  <si>
+    <t>[(JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_ESE, JB_A)]</t>
+  </si>
+  <si>
+    <t>[(JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_ESE, JB_A), (JB_LP, JB_ULE, JB_CP, JB_ESE, JB_A, JB_LS, JB_TR)]</t>
+  </si>
+  <si>
+    <t>[(JB_LP, JB_ULE, JB_ESE, JB_CP, JB_A, JB_LS, JB_TR), (JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_ESE, JB_A), (JB_LP, JB_ULE, JB_CP, JB_ESE, JB_A, JB_LS, JB_TR)]</t>
+  </si>
+  <si>
+    <t>[(JB_LP, JB_ULE, JB_CP, JB_LS, JB_TR, JB_A, JB_ESE), (JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_ESE, JB_A)]</t>
+  </si>
+  <si>
+    <t>[(JB_LP, JB_ULE, JB_ESE, JB_CP, JB_A, JB_LS, JB_TR), (JB_LS, JB_TR, JB_ESE, JB_A, JB_LP, JB_ULE, JB_CP), (JB_LP, JB_ULE, JB_CP, JB_LS, JB_TR, JB_A, JB_ESE), (JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_ESE, JB_A), (JB_LS, JB_TR, JB_LP, JB_ULE, JB_ESE, JB_CP, JB_A), (JB_LP, JB_ULE, JB_CP, JB_ESE, JB_A, JB_LS, JB_TR), (JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_A, JB_ESE)]</t>
+  </si>
+  <si>
+    <t>[(JB_LP, JB_ULE, JB_ESE, JB_CP, JB_A, JB_LS, JB_TR)]</t>
+  </si>
+  <si>
+    <t>[(JB_LP, JB_ULE, JB_ESE, JB_CP, JB_A, JB_LS, JB_TR), (JB_LP, JB_ULE, JB_CP, JB_A, JB_LS, JB_TR, JB_ESE), (JB_LP, JB_ULE, JB_LS, JB_TR, JB_CP, JB_A, JB_ESE), (JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_ESE, JB_A)]</t>
+  </si>
+  <si>
+    <t>[(JB_CP, JB_ESE, JB_LP, JB_ULE, JB_A, JB_LS, JB_TR), (JB_LP, JB_ULE, JB_ESE, JB_CP, JB_A, JB_LS, JB_TR), (JB_LP, JB_ULE, JB_CP, JB_LS, JB_TR, JB_A, JB_ESE), (JB_LP, JB_ULE, JB_LS, JB_TR, JB_ESE, JB_CP, JB_A), (JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_ESE, JB_A)]</t>
+  </si>
+  <si>
+    <t>[(JB_CP, JB_A, JB_LP, JB_ULE, JB_LS, JB_TR, JB_ESE), (JB_CP, JB_ESE, JB_LP, JB_ULE, JB_A, JB_LS, JB_TR), (JB_LP, JB_ULE, JB_ESE, JB_CP, JB_A, JB_LS, JB_TR), (JB_LP, JB_ULE, JB_CP, JB_ESE, JB_A, JB_LS, JB_TR), (JB_LP, JB_ULE, JB_LS, JB_TR, JB_CP, JB_ESE, JB_A), (JB_LP, JB_ULE, JB_CP, JB_A, JB_LS, JB_TR, JB_ESE), (JB_LP, JB_ULE, JB_CP, JB_LS, JB_TR, JB_A, JB_ESE), (JB_LP, JB_ULE, JB_LS, JB_TR, JB_ESE, JB_CP, JB_A), (JB_LP, JB_ULE, JB_LS, JB_TR, JB_CP, JB_A, JB_ESE), (JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_ESE, JB_A)]</t>
+  </si>
+  <si>
+    <t>[(JB_LP, JB_ULE, JB_ESE, JB_CP, JB_A, JB_LS, JB_TR), (JB_CP, JB_ESE, JB_LP, JB_ULE, JB_A, JB_LS, JB_TR), (JB_LP, JB_ULE, JB_CP, JB_LS, JB_TR, JB_A, JB_ESE), (JB_LP, JB_ULE, JB_LS, JB_TR, JB_ESE, JB_CP, JB_A), (JB_LP, JB_ULE, JB_LS, JB_TR, JB_CP, JB_A, JB_ESE), (JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_ESE, JB_A)]</t>
+  </si>
+  <si>
+    <t>[(JB_LP, JB_ULE, JB_ESE, JB_CP, JB_A, JB_LS, JB_TR), (JB_CP, JB_A, JB_LP, JB_ULE, JB_LS, JB_TR, JB_ESE), (JB_CP, JB_ESE, JB_LP, JB_ULE, JB_A, JB_LS, JB_TR), (JB_ESE, JB_LP, JB_ULE, JB_CP, JB_LS, JB_TR, JB_A), (JB_LP, JB_ULE, JB_CP, JB_ESE, JB_LS, JB_TR, JB_A), (JB_LP, JB_ULE, JB_CP, JB_ESE, JB_A, JB_LS, JB_TR), (JB_LP, JB_ULE, JB_LS, JB_TR, JB_CP, JB_ESE, JB_A), (JB_LP, JB_ULE, JB_CP, JB_A, JB_LS, JB_TR, JB_ESE), (JB_LP, JB_ULE, JB_CP, JB_LS, JB_TR, JB_A, JB_ESE), (JB_LP, JB_ULE, JB_LS, JB_TR, JB_ESE, JB_CP, JB_A), (JB_LP, JB_ULE, JB_LS, JB_TR, JB_CP, JB_A, JB_ESE), (JB_LS, JB_TR, JB_LP, JB_ULE, JB_CP, JB_ESE, JB_A)]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -509,8 +772,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -520,6 +796,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,11 +818,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -825,1212 +1116,243 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <tabColor rgb="FF92D050"/>
-  </sheetPr>
-  <dimension ref="A1:D36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37156663-FD48-422A-BD01-D0C78DB966EE}">
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="87.453125" customWidth="1"/>
+    <col min="5" max="5" width="90.90625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="4">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="5">
+        <v>110</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="D2" s="5">
+        <v>9</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="66" x14ac:dyDescent="0.35">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B3" s="5">
+        <v>110</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="D3" s="5">
+        <v>8</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="33" x14ac:dyDescent="0.35">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B4" s="5">
+        <v>120</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="D4" s="5">
+        <v>9</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="115.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="B5" s="5">
+        <v>120</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="D5" s="5">
+        <v>8</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="B6" s="5">
+        <v>130</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="D6" s="5">
+        <v>9</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="165" x14ac:dyDescent="0.35">
+      <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="B7" s="5">
+        <v>130</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="D7" s="5">
+        <v>8</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="82.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="B8" s="5">
+        <v>140</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="D8" s="5">
+        <v>9</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="247.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="B9" s="5">
+        <v>140</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="D9" s="5">
         <v>8</v>
       </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="E9" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="132" x14ac:dyDescent="0.35">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5">
+        <v>150</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="D10" s="5">
         <v>9</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="E10" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="330" x14ac:dyDescent="0.35">
+      <c r="A11" s="4">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5">
+        <v>150</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="D11" s="5">
+        <v>8</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="165" x14ac:dyDescent="0.35">
+      <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="B12" s="5">
+        <v>160</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="D12" s="5">
+        <v>9</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="4">
         <v>11</v>
       </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>49</v>
-      </c>
-      <c r="B28" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>50</v>
-      </c>
-      <c r="B30" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>21</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D31" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>52</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D32" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>22</v>
-      </c>
-      <c r="B33" t="s">
-        <v>24</v>
-      </c>
-      <c r="C33" t="s">
-        <v>24</v>
-      </c>
-      <c r="D33" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>54</v>
-      </c>
-      <c r="B34" t="s">
-        <v>24</v>
-      </c>
-      <c r="C34" t="s">
-        <v>24</v>
-      </c>
-      <c r="D34" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>23</v>
-      </c>
-      <c r="B35" t="s">
-        <v>24</v>
-      </c>
-      <c r="C35" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>51</v>
-      </c>
-      <c r="B36" t="s">
-        <v>24</v>
-      </c>
-      <c r="C36" t="s">
-        <v>24</v>
+      <c r="B13" s="5">
+        <v>160</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="D13" s="5">
+        <v>8</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B75705-77D5-4135-BC36-BC72BB916C48}">
-  <sheetPr>
-    <tabColor rgb="FF92D050"/>
-  </sheetPr>
-  <dimension ref="A1:D34"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="4" max="4" width="51.90625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>126</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>58</v>
-      </c>
-      <c r="B27" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>110</v>
-      </c>
-      <c r="B28" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>111</v>
-      </c>
-      <c r="B29" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>112</v>
-      </c>
-      <c r="B30" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>113</v>
-      </c>
-      <c r="B31" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>132</v>
-      </c>
-      <c r="B32" t="s">
-        <v>24</v>
-      </c>
-      <c r="C32" t="s">
-        <v>24</v>
-      </c>
-      <c r="D32" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>133</v>
-      </c>
-      <c r="B33" t="s">
-        <v>24</v>
-      </c>
-      <c r="C33" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>134</v>
-      </c>
-      <c r="B34" t="s">
-        <v>24</v>
-      </c>
-      <c r="C34" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01127D9B-9278-4A7A-A675-0A71F0BBC6C7}">
-  <dimension ref="A1:E26"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="4" max="4" width="51.7265625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>110</v>
-      </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>111</v>
-      </c>
-      <c r="B26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9C60968-C8EF-4B05-A358-05624D374EE3}">
   <dimension ref="A1:D20"/>
   <sheetViews>
@@ -2272,7 +1594,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{831437A3-0FE3-41D4-BAC3-857A168DAE24}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -2604,7 +1926,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E79297C-28E4-4FA7-B2C6-7EA3BE6F92F8}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -2647,7 +1969,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEE2D155-8980-48ED-9F7D-0F3850F6F73E}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -3103,7 +2425,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24217E59-62E7-4316-AA4A-CC081F82175C}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -3147,7 +2469,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52E0A71C-0C8D-4607-8B6E-74F51903A3B1}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -3654,7 +2976,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEABA7D8-4D45-46B3-848E-5A9094F34FDC}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -3699,7 +3021,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F1D8C28-615A-4C5F-B29C-3C7866EC8681}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -4007,4 +3329,2991 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B75705-77D5-4135-BC36-BC72BB916C48}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:D34"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="51.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>110</v>
+      </c>
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>111</v>
+      </c>
+      <c r="B29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>112</v>
+      </c>
+      <c r="B30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>113</v>
+      </c>
+      <c r="B31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>132</v>
+      </c>
+      <c r="B32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>133</v>
+      </c>
+      <c r="B33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>134</v>
+      </c>
+      <c r="B34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01127D9B-9278-4A7A-A675-0A71F0BBC6C7}">
+  <dimension ref="A1:E26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="51.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>110</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>111</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA7BBD83-9D83-4C81-AA98-6823B71E2474}">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="87.26953125" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="4">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5">
+        <v>90</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="D2" s="5">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="33" x14ac:dyDescent="0.35">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5">
+        <v>100</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="D3" s="5">
+        <v>8</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="33" x14ac:dyDescent="0.35">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5">
+        <v>110</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="D4" s="5">
+        <v>8</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5">
+        <v>120</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="D5" s="5">
+        <v>9</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="82.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5">
+        <v>120</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="D6" s="5">
+        <v>8</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="66" x14ac:dyDescent="0.35">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5">
+        <v>130</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="D7" s="5">
+        <v>9</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="132" x14ac:dyDescent="0.35">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5">
+        <v>130</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="D8" s="5">
+        <v>8</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="82.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5">
+        <v>140</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="D9" s="5">
+        <v>9</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="214.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5">
+        <v>140</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="D10" s="5">
+        <v>8</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="132" x14ac:dyDescent="0.35">
+      <c r="A11" s="4">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5">
+        <v>150</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="D11" s="5">
+        <v>9</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="247.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="4">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5">
+        <v>150</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="D12" s="5">
+        <v>8</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="165" x14ac:dyDescent="0.35">
+      <c r="A13" s="4">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5">
+        <v>160</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="D13" s="5">
+        <v>9</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="313.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="4">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5">
+        <v>160</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="D14" s="5">
+        <v>8</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74DD2640-9645-4014-A39A-A8B949AE1FBA}">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="86" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="4">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5">
+        <v>50</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="D2" s="5">
+        <v>9</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5">
+        <v>60</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="D3" s="5">
+        <v>9</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="82.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5">
+        <v>70</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="D4" s="5">
+        <v>9</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="181.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5">
+        <v>80</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="D5" s="5">
+        <v>9</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5">
+        <v>90</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="D6" s="5">
+        <v>11</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="264" x14ac:dyDescent="0.35">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5">
+        <v>90</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="D7" s="5">
+        <v>9</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="82.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5">
+        <v>100</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="D8" s="5">
+        <v>11</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="396" x14ac:dyDescent="0.35">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5">
+        <v>100</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="D9" s="5">
+        <v>9</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="132" x14ac:dyDescent="0.35">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5">
+        <v>110</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="D10" s="5">
+        <v>11</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="4">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5">
+        <v>110</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="D11" s="5">
+        <v>9</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="198" x14ac:dyDescent="0.35">
+      <c r="A12" s="4">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5">
+        <v>120</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="D12" s="5">
+        <v>11</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="4">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5">
+        <v>120</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="D13" s="5">
+        <v>9</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="231" x14ac:dyDescent="0.35">
+      <c r="A14" s="4">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5">
+        <v>130</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="D14" s="5">
+        <v>11</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="4">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5">
+        <v>130</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="D15" s="5">
+        <v>9</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="297" x14ac:dyDescent="0.35">
+      <c r="A16" s="4">
+        <v>14</v>
+      </c>
+      <c r="B16" s="5">
+        <v>140</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="D16" s="5">
+        <v>11</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="4">
+        <v>15</v>
+      </c>
+      <c r="B17" s="5">
+        <v>140</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="D17" s="5">
+        <v>9</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="396" x14ac:dyDescent="0.35">
+      <c r="A18" s="4">
+        <v>16</v>
+      </c>
+      <c r="B18" s="5">
+        <v>150</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="D18" s="5">
+        <v>11</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="4">
+        <v>17</v>
+      </c>
+      <c r="B19" s="5">
+        <v>150</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="D19" s="5">
+        <v>9</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="4">
+        <v>18</v>
+      </c>
+      <c r="B20" s="5">
+        <v>160</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="D20" s="5">
+        <v>11</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="4">
+        <v>19</v>
+      </c>
+      <c r="B21" s="5">
+        <v>160</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="D21" s="5">
+        <v>9</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22F479AB-63FC-40B0-8EBF-12562AD99814}">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="13.81640625" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="12.54296875" customWidth="1"/>
+    <col min="5" max="5" width="108.453125" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="4">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5">
+        <v>60</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="D2" s="5">
+        <v>10</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="99" x14ac:dyDescent="0.35">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5">
+        <v>70</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="D3" s="5">
+        <v>10</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="33" x14ac:dyDescent="0.35">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5">
+        <v>80</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="D4" s="5">
+        <v>11</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="231" x14ac:dyDescent="0.35">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5">
+        <v>80</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="D5" s="5">
+        <v>10</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="99" x14ac:dyDescent="0.35">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5">
+        <v>90</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="D6" s="5">
+        <v>11</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="330" x14ac:dyDescent="0.35">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5">
+        <v>90</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="D7" s="5">
+        <v>10</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="231" x14ac:dyDescent="0.35">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5">
+        <v>100</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="D8" s="5">
+        <v>11</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5">
+        <v>100</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="D9" s="5">
+        <v>10</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="313.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5">
+        <v>110</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="D10" s="5">
+        <v>11</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="4">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5">
+        <v>110</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="D11" s="5">
+        <v>10</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="379.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="4">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5">
+        <v>120</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="D12" s="5">
+        <v>11</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="4">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5">
+        <v>120</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="D13" s="5">
+        <v>10</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="4">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5">
+        <v>130</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="D14" s="5">
+        <v>11</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="4">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5">
+        <v>130</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="D15" s="5">
+        <v>10</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="4">
+        <v>14</v>
+      </c>
+      <c r="B16" s="5">
+        <v>140</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="D16" s="5">
+        <v>11</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="4">
+        <v>15</v>
+      </c>
+      <c r="B17" s="5">
+        <v>140</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="D17" s="5">
+        <v>10</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="4">
+        <v>16</v>
+      </c>
+      <c r="B18" s="5">
+        <v>150</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="D18" s="5">
+        <v>11</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="4">
+        <v>17</v>
+      </c>
+      <c r="B19" s="5">
+        <v>150</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="D19" s="5">
+        <v>10</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="4">
+        <v>18</v>
+      </c>
+      <c r="B20" s="5">
+        <v>160</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="D20" s="5">
+        <v>11</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="4">
+        <v>19</v>
+      </c>
+      <c r="B21" s="5">
+        <v>160</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="D21" s="5">
+        <v>10</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE7C37F2-C348-4B34-8388-3C61A7F899DE}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="83.90625" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="4">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5">
+        <v>30</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="D2" s="5">
+        <v>10</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5">
+        <v>40</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="D3" s="5">
+        <v>11</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5">
+        <v>40</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="D4" s="5">
+        <v>10</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5">
+        <v>50</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="D5" s="5">
+        <v>11</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="99" x14ac:dyDescent="0.35">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5">
+        <v>50</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="D6" s="5">
+        <v>10</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="66" x14ac:dyDescent="0.35">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5">
+        <v>60</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="D7" s="5">
+        <v>11</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="115.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5">
+        <v>60</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="D8" s="5">
+        <v>10</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14AD9C64-6287-4F16-869E-75F59B43B0CA}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="85.81640625" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="33" x14ac:dyDescent="0.35">
+      <c r="A2" s="4">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5">
+        <v>30</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="D2" s="5">
+        <v>9</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="33" x14ac:dyDescent="0.35">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5">
+        <v>40</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="D3" s="5">
+        <v>11</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="66" x14ac:dyDescent="0.35">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5">
+        <v>40</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="D4" s="5">
+        <v>9</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="33" x14ac:dyDescent="0.35">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5">
+        <v>50</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="D5" s="5">
+        <v>11</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="99" x14ac:dyDescent="0.35">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5">
+        <v>50</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="D6" s="5">
+        <v>9</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5">
+        <v>60</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="D7" s="5">
+        <v>11</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="165" x14ac:dyDescent="0.35">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5">
+        <v>60</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="D8" s="5">
+        <v>9</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABCD4067-23D1-4922-BBE0-E6F940FD7044}">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="84.6328125" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="4">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5">
+        <v>10</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="D2" s="5">
+        <v>9</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="D3" s="5">
+        <v>8</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5">
+        <v>20</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="D4" s="5">
+        <v>9</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5">
+        <v>20</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="D5" s="5">
+        <v>8</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5">
+        <v>30</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="D6" s="5">
+        <v>9</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5">
+        <v>30</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="D7" s="5">
+        <v>8</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5">
+        <v>40</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="D8" s="5">
+        <v>9</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="33" x14ac:dyDescent="0.35">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5">
+        <v>40</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="D9" s="5">
+        <v>8</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5">
+        <v>50</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="D10" s="5">
+        <v>9</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="33" x14ac:dyDescent="0.35">
+      <c r="A11" s="4">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5">
+        <v>50</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="D11" s="5">
+        <v>8</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="33" x14ac:dyDescent="0.35">
+      <c r="A12" s="4">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5">
+        <v>60</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="D12" s="5">
+        <v>9</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="66" x14ac:dyDescent="0.35">
+      <c r="A13" s="4">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5">
+        <v>60</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="D13" s="5">
+        <v>8</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E250CCA-92C0-47D0-8623-6D0E945ECD73}">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="61.90625" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="4">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5">
+        <v>10</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="D2" s="5">
+        <v>9</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="D3" s="5">
+        <v>8</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5">
+        <v>20</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="D4" s="5">
+        <v>9</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5">
+        <v>20</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="D5" s="5">
+        <v>8</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5">
+        <v>30</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="D6" s="5">
+        <v>9</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5">
+        <v>30</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="D7" s="5">
+        <v>8</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5">
+        <v>40</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="D8" s="5">
+        <v>9</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5">
+        <v>40</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="D9" s="5">
+        <v>8</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5">
+        <v>50</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="D10" s="5">
+        <v>9</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="4">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5">
+        <v>50</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="D11" s="5">
+        <v>8</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="4">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5">
+        <v>60</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="D12" s="5">
+        <v>9</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="4">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5">
+        <v>60</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="D13" s="5">
+        <v>8</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:D36"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="87.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>